--- a/merlin-core/examples/tests/Test.xlsx
+++ b/merlin-core/examples/tests/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/merlin-core/examples/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FD4CE1-8422-994A-9DD4-52246830C0D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B411B59-499F-A14C-8426-E2E615F7BEA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{807731F7-3C7F-FA4C-9BD2-1577F56BA4D5}"/>
   </bookViews>

--- a/merlin-core/examples/tests/Test.xlsx
+++ b/merlin-core/examples/tests/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/merlin-core/examples/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B411B59-499F-A14C-8426-E2E615F7BEA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E24D10-441F-5947-B721-DB5F8CBF3997}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{807731F7-3C7F-FA4C-9BD2-1577F56BA4D5}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/merlin-core/examples/tests/Test.xlsx
+++ b/merlin-core/examples/tests/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/merlin-core/examples/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57117642-16CD-F041-B83B-6177945A0B26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F521B2D2-BD39-A540-9D92-4A73B4AB91BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{807731F7-3C7F-FA4C-9BD2-1577F56BA4D5}"/>
+    <workbookView xWindow="8800" yWindow="4360" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{807731F7-3C7F-FA4C-9BD2-1577F56BA4D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Property</t>
   </si>
@@ -110,6 +110,9 @@
   <si>
     <t xml:space="preserve"> validation-error: duplicate</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
@@ -176,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -198,6 +201,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -597,7 +601,7 @@
   <dimension ref="A1:E2427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,6 +663,9 @@
       <c r="A4" t="s">
         <v>16</v>
       </c>
+      <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
@@ -670,10 +677,16 @@
       <c r="B5" t="s">
         <v>20</v>
       </c>
+      <c r="D5" s="10">
+        <v>25569</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
+      </c>
+      <c r="D6" s="13">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/merlin-core/examples/tests/Test.xlsx
+++ b/merlin-core/examples/tests/Test.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/merlin-core/examples/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F521B2D2-BD39-A540-9D92-4A73B4AB91BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8257D06-34FB-014D-A549-F792E18B33D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="4360" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{807731F7-3C7F-FA4C-9BD2-1577F56BA4D5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{807731F7-3C7F-FA4C-9BD2-1577F56BA4D5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Config" sheetId="4" r:id="rId1"/>
-    <sheet name="Validator-Test" sheetId="6" r:id="rId2"/>
+    <sheet name="Validator-Test" sheetId="7" r:id="rId1"/>
+    <sheet name="Config" sheetId="4" r:id="rId2"/>
+    <sheet name="Validator-Mass-Test" sheetId="6" r:id="rId3"/>
+    <sheet name="Empty-sheet" sheetId="8" r:id="rId4"/>
+    <sheet name="Empty-sheet2" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Validator-Test'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Validator-Mass-Test'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Validator-Test'!$A$3:$H$3</definedName>
     <definedName name="Icons">#REF!</definedName>
     <definedName name="Item_Types">#REF!</definedName>
     <definedName name="KNX_Channel_Types">#REF!</definedName>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="538">
   <si>
     <t>Property</t>
   </si>
@@ -112,6 +116,1545 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Zip code</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Humphrey</t>
+  </si>
+  <si>
+    <t>Amela</t>
+  </si>
+  <si>
+    <t>metus.Aliquam@semsempererat.edu</t>
+  </si>
+  <si>
+    <t>576-5747 Non, St.</t>
+  </si>
+  <si>
+    <t>Aparecida de Goiânia</t>
+  </si>
+  <si>
+    <t>Henderson</t>
+  </si>
+  <si>
+    <t>Aubrey</t>
+  </si>
+  <si>
+    <t>diam@augue.net</t>
+  </si>
+  <si>
+    <t>114-1013 Mus.  Rd.</t>
+  </si>
+  <si>
+    <t>Pietraroja</t>
+  </si>
+  <si>
+    <t>Hines</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>nibh.Aliquam.ornare@egetmassa.net</t>
+  </si>
+  <si>
+    <t>3753 Magna  Av.</t>
+  </si>
+  <si>
+    <t>Tulita</t>
+  </si>
+  <si>
+    <t>Shannon</t>
+  </si>
+  <si>
+    <t>Shea</t>
+  </si>
+  <si>
+    <t>commodo.auctor.velit@tincidunt.ca</t>
+  </si>
+  <si>
+    <t>1775 Pede.  St.</t>
+  </si>
+  <si>
+    <t>Lac La Biche County</t>
+  </si>
+  <si>
+    <t>Phelps</t>
+  </si>
+  <si>
+    <t>Karyn</t>
+  </si>
+  <si>
+    <t>ultrices.a@egetmetusIn.com</t>
+  </si>
+  <si>
+    <t>Postfach 192, 5950 Vitae,  Rd.</t>
+  </si>
+  <si>
+    <t>74-849</t>
+  </si>
+  <si>
+    <t>Dessau</t>
+  </si>
+  <si>
+    <t>Alvarez</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>7280 Auctor  Ave</t>
+  </si>
+  <si>
+    <t>Anantapur</t>
+  </si>
+  <si>
+    <t>Browning</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>nulla.magna@massa.co.uk</t>
+  </si>
+  <si>
+    <t>6416 Ligula.  Rd.</t>
+  </si>
+  <si>
+    <t>Donnas</t>
+  </si>
+  <si>
+    <t>Navarro</t>
+  </si>
+  <si>
+    <t>Rashad</t>
+  </si>
+  <si>
+    <t>feugiat@Aliquamerat.com</t>
+  </si>
+  <si>
+    <t>Ap #430-9549 Cum  Straße</t>
+  </si>
+  <si>
+    <t>Patna</t>
+  </si>
+  <si>
+    <t>Griffith</t>
+  </si>
+  <si>
+    <t>Ulysses</t>
+  </si>
+  <si>
+    <t>Ut.semper.pretium@sed.org</t>
+  </si>
+  <si>
+    <t>8448 Cras  Avenue</t>
+  </si>
+  <si>
+    <t>Pabianice</t>
+  </si>
+  <si>
+    <t>Macdonald</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>vel@purusmaurisa.co.uk</t>
+  </si>
+  <si>
+    <t>Ap #859-4745 Sem St.</t>
+  </si>
+  <si>
+    <t>Chester</t>
+  </si>
+  <si>
+    <t>Floyd</t>
+  </si>
+  <si>
+    <t>Sierra</t>
+  </si>
+  <si>
+    <t>Integer.urna.Vivamus@vulputatevelit.co.uk</t>
+  </si>
+  <si>
+    <t>Ap #726-2803 Taciti  Avenue</t>
+  </si>
+  <si>
+    <t>Elbląg</t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t>Hayes</t>
+  </si>
+  <si>
+    <t>sociosqu@sollicitudina.org</t>
+  </si>
+  <si>
+    <t>Postfach 591, 1213 Convallis  Av.</t>
+  </si>
+  <si>
+    <t>9698 IC</t>
+  </si>
+  <si>
+    <t>Moorsel</t>
+  </si>
+  <si>
+    <t>Buckner</t>
+  </si>
+  <si>
+    <t>Iola</t>
+  </si>
+  <si>
+    <t>erat@metus.net</t>
+  </si>
+  <si>
+    <t>730-6254 Placerat,  Avenue</t>
+  </si>
+  <si>
+    <t>Miramichi</t>
+  </si>
+  <si>
+    <t>Bowman</t>
+  </si>
+  <si>
+    <t>Yuli</t>
+  </si>
+  <si>
+    <t>Postfach 667, 7264 Tincidunt  Straße</t>
+  </si>
+  <si>
+    <t>V47 9QQ</t>
+  </si>
+  <si>
+    <t>Antakya</t>
+  </si>
+  <si>
+    <t>Petersen</t>
+  </si>
+  <si>
+    <t>Kamal</t>
+  </si>
+  <si>
+    <t>natoque.penatibus.et@cubiliaCurae.com</t>
+  </si>
+  <si>
+    <t>8040 Enim.  Av.</t>
+  </si>
+  <si>
+    <t>Bayreuth</t>
+  </si>
+  <si>
+    <t>Miles</t>
+  </si>
+  <si>
+    <t>Shelley</t>
+  </si>
+  <si>
+    <t>aliquam.arcu.Aliquam@anteVivamusnon.org</t>
+  </si>
+  <si>
+    <t>687-2275 Aliquet, St.</t>
+  </si>
+  <si>
+    <t>9869 RK</t>
+  </si>
+  <si>
+    <t>Nashik</t>
+  </si>
+  <si>
+    <t>Bartlett</t>
+  </si>
+  <si>
+    <t>Daphne</t>
+  </si>
+  <si>
+    <t>massa.non@dolor.ca</t>
+  </si>
+  <si>
+    <t>Postfach 394, 126 Sapien. St.</t>
+  </si>
+  <si>
+    <t>Naumburg</t>
+  </si>
+  <si>
+    <t>Juarez</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Duis.risus.odio@tellus.ca</t>
+  </si>
+  <si>
+    <t>606-1877 Commodo  Rd.</t>
+  </si>
+  <si>
+    <t>Opheylissem</t>
+  </si>
+  <si>
+    <t>Mcleod</t>
+  </si>
+  <si>
+    <t>Tamekah</t>
+  </si>
+  <si>
+    <t>Ap #991-2756 Lorem,  Avenue</t>
+  </si>
+  <si>
+    <t>Warisoulx</t>
+  </si>
+  <si>
+    <t>Adkins</t>
+  </si>
+  <si>
+    <t>Colt</t>
+  </si>
+  <si>
+    <t>ante@ipsumdolorsit.ca</t>
+  </si>
+  <si>
+    <t>Postfach 594, 2655 Dui,  Rd.</t>
+  </si>
+  <si>
+    <t>Hyères</t>
+  </si>
+  <si>
+    <t>Lynn</t>
+  </si>
+  <si>
+    <t>Keiko</t>
+  </si>
+  <si>
+    <t>amet@nequevenenatis.org</t>
+  </si>
+  <si>
+    <t>542-6452 Ipsum.  Rd.</t>
+  </si>
+  <si>
+    <t>Dieppe</t>
+  </si>
+  <si>
+    <t>Weiss</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>massa.lobortis@Duisacarcu.edu</t>
+  </si>
+  <si>
+    <t>Postfach 180, 6115 Sit  Ave</t>
+  </si>
+  <si>
+    <t>Blieskastel</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Rhiannon</t>
+  </si>
+  <si>
+    <t>Morbi.vehicula.Pellentesque@Duisac.co.uk</t>
+  </si>
+  <si>
+    <t>835-3928 Nisl  Rd.</t>
+  </si>
+  <si>
+    <t>Charny</t>
+  </si>
+  <si>
+    <t>Bailey</t>
+  </si>
+  <si>
+    <t>Axel</t>
+  </si>
+  <si>
+    <t>eget@vel.net</t>
+  </si>
+  <si>
+    <t>1529 Lacus.  Rd.</t>
+  </si>
+  <si>
+    <t>Cervinara</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>ultrices.a.auctor@dui.ca</t>
+  </si>
+  <si>
+    <t>6252 Adipiscing  Rd.</t>
+  </si>
+  <si>
+    <t>V5E 3M8</t>
+  </si>
+  <si>
+    <t>Remagne</t>
+  </si>
+  <si>
+    <t>Cooley</t>
+  </si>
+  <si>
+    <t>Nathaniel</t>
+  </si>
+  <si>
+    <t>dapibus.quam@nonvestibulum.co.uk</t>
+  </si>
+  <si>
+    <t>Ap #256-6575 At  Av.</t>
+  </si>
+  <si>
+    <t>HP14 5PI</t>
+  </si>
+  <si>
+    <t>Paularo</t>
+  </si>
+  <si>
+    <t>Warner</t>
+  </si>
+  <si>
+    <t>Ishmael</t>
+  </si>
+  <si>
+    <t>est.mollis@turpisnec.ca</t>
+  </si>
+  <si>
+    <t>Ap #122-2815 Odio.  St.</t>
+  </si>
+  <si>
+    <t>Lichtaart</t>
+  </si>
+  <si>
+    <t>Porter</t>
+  </si>
+  <si>
+    <t>lectus.convallis.est@Cras.org</t>
+  </si>
+  <si>
+    <t>Ap #361-885 Lorem St.</t>
+  </si>
+  <si>
+    <t>DO9H 9VD</t>
+  </si>
+  <si>
+    <t>Rae-Edzo</t>
+  </si>
+  <si>
+    <t>Christensen</t>
+  </si>
+  <si>
+    <t>Asher</t>
+  </si>
+  <si>
+    <t>sit@arcuiaculis.ca</t>
+  </si>
+  <si>
+    <t>Postfach 865, 8322 Lorem  Straße</t>
+  </si>
+  <si>
+    <t>Elen</t>
+  </si>
+  <si>
+    <t>Hodges</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>et.magna@lacusCras.ca</t>
+  </si>
+  <si>
+    <t>925 Nulla.  Straße</t>
+  </si>
+  <si>
+    <t>37858-861</t>
+  </si>
+  <si>
+    <t>East Gwillimbury</t>
+  </si>
+  <si>
+    <t>Sanders</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Sed.auctor@aliquameros.net</t>
+  </si>
+  <si>
+    <t>858-8443 Enim  Rd.</t>
+  </si>
+  <si>
+    <t>Rotello</t>
+  </si>
+  <si>
+    <t>Shaffer</t>
+  </si>
+  <si>
+    <t>quam@habitantmorbitristique.net</t>
+  </si>
+  <si>
+    <t>Postfach 100, 2194 Ut,  Ave</t>
+  </si>
+  <si>
+    <t>Lumaco</t>
+  </si>
+  <si>
+    <t>Rios</t>
+  </si>
+  <si>
+    <t>Abbot</t>
+  </si>
+  <si>
+    <t>tincidunt@ipsum.com</t>
+  </si>
+  <si>
+    <t>779-6635 Neque  Straße</t>
+  </si>
+  <si>
+    <t>Eyemouth</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>fermentum@ametnulla.com</t>
+  </si>
+  <si>
+    <t>Postfach 488, 9387 Tempus  Straße</t>
+  </si>
+  <si>
+    <t>Labrecque</t>
+  </si>
+  <si>
+    <t>Acevedo</t>
+  </si>
+  <si>
+    <t>Ronan</t>
+  </si>
+  <si>
+    <t>pede.blandit@lacus.edu</t>
+  </si>
+  <si>
+    <t>253-9922 Risus.  Straße</t>
+  </si>
+  <si>
+    <t>K2P 7C8</t>
+  </si>
+  <si>
+    <t>Motueka</t>
+  </si>
+  <si>
+    <t>Carroll</t>
+  </si>
+  <si>
+    <t>facilisis.magna@dolorNulla.ca</t>
+  </si>
+  <si>
+    <t>Ap #708-3791 Scelerisque  Rd.</t>
+  </si>
+  <si>
+    <t>Drayton Valley</t>
+  </si>
+  <si>
+    <t>Ferrell</t>
+  </si>
+  <si>
+    <t>Lysandra</t>
+  </si>
+  <si>
+    <t>blandit.Nam.nulla@cursusvestibulumMauris.co.uk</t>
+  </si>
+  <si>
+    <t>4833 Et  Straße</t>
+  </si>
+  <si>
+    <t>Bourges</t>
+  </si>
+  <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Chaim</t>
+  </si>
+  <si>
+    <t>Etiam.bibendum@elit.ca</t>
+  </si>
+  <si>
+    <t>Postfach 650, 7354 Nam  Straße</t>
+  </si>
+  <si>
+    <t>Newmarket</t>
+  </si>
+  <si>
+    <t>Caldwell</t>
+  </si>
+  <si>
+    <t>Aretha</t>
+  </si>
+  <si>
+    <t>mi@ac.net</t>
+  </si>
+  <si>
+    <t>Ap #758-7182 Mauris  Ave</t>
+  </si>
+  <si>
+    <t>Patarrá</t>
+  </si>
+  <si>
+    <t>Roberson</t>
+  </si>
+  <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>urna.suscipit.nonummy@arcuVestibulumut.com</t>
+  </si>
+  <si>
+    <t>Ap #439-8736 Vel,  Avenue</t>
+  </si>
+  <si>
+    <t>San Ignacio</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Linus</t>
+  </si>
+  <si>
+    <t>turpis@egetmollis.com</t>
+  </si>
+  <si>
+    <t>589-5394 Consectetuer  St.</t>
+  </si>
+  <si>
+    <t>Termoli</t>
+  </si>
+  <si>
+    <t>Bowen</t>
+  </si>
+  <si>
+    <t>Tana</t>
+  </si>
+  <si>
+    <t>nibh@nislQuisquefringilla.net</t>
+  </si>
+  <si>
+    <t>6294 Amet  Rd.</t>
+  </si>
+  <si>
+    <t>Abohar</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>et.eros.Proin@consequatnec.co.uk</t>
+  </si>
+  <si>
+    <t>325-871 Erat  Straße</t>
+  </si>
+  <si>
+    <t>71738-777</t>
+  </si>
+  <si>
+    <t>Wick</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Aphrodite</t>
+  </si>
+  <si>
+    <t>Nulla.tincidunt@magna.co.uk</t>
+  </si>
+  <si>
+    <t>Postfach 378, 331 Tempor  Avenue</t>
+  </si>
+  <si>
+    <t>R5Y 7B8</t>
+  </si>
+  <si>
+    <t>Zandhoven</t>
+  </si>
+  <si>
+    <t>Cox</t>
+  </si>
+  <si>
+    <t>Brendan</t>
+  </si>
+  <si>
+    <t>vel.quam.dignissim@nonenimcommodo.com</t>
+  </si>
+  <si>
+    <t>Ap #341-4904 Neque  Rd.</t>
+  </si>
+  <si>
+    <t>Archennes</t>
+  </si>
+  <si>
+    <t>Whitehead</t>
+  </si>
+  <si>
+    <t>Armand</t>
+  </si>
+  <si>
+    <t>urna@feugiatmetus.edu</t>
+  </si>
+  <si>
+    <t>272-3940 Magna  Straße</t>
+  </si>
+  <si>
+    <t>X1B 5L5</t>
+  </si>
+  <si>
+    <t>Calais</t>
+  </si>
+  <si>
+    <t>Guzman</t>
+  </si>
+  <si>
+    <t>Dorothy</t>
+  </si>
+  <si>
+    <t>ac.facilisis.facilisis@rhoncusid.org</t>
+  </si>
+  <si>
+    <t>Ap #236-6783 Tellus.  Av.</t>
+  </si>
+  <si>
+    <t>Warwick</t>
+  </si>
+  <si>
+    <t>Gay</t>
+  </si>
+  <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>mi.fringilla.mi@quislectusNullam.ca</t>
+  </si>
+  <si>
+    <t>Postfach 676, 5396 Enim  Avenue</t>
+  </si>
+  <si>
+    <t>Bankura</t>
+  </si>
+  <si>
+    <t>Coffey</t>
+  </si>
+  <si>
+    <t>Nero</t>
+  </si>
+  <si>
+    <t>euismod@risusMorbimetus.co.uk</t>
+  </si>
+  <si>
+    <t>Ap #418-4561 Pulvinar St.</t>
+  </si>
+  <si>
+    <t>Ligney</t>
+  </si>
+  <si>
+    <t>Hart</t>
+  </si>
+  <si>
+    <t>Hoyt</t>
+  </si>
+  <si>
+    <t>ante.iaculis@eratSed.net</t>
+  </si>
+  <si>
+    <t>Ap #320-2811 Velit.  Straße</t>
+  </si>
+  <si>
+    <t>San Clemente</t>
+  </si>
+  <si>
+    <t>Sims</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Phasellus.nulla.Integer@necquamCurabitur.net</t>
+  </si>
+  <si>
+    <t>Ap #401-1154 Nam  Straße</t>
+  </si>
+  <si>
+    <t>Niterói</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Rooney</t>
+  </si>
+  <si>
+    <t>Nullam.nisl.Maecenas@Donecvitae.com</t>
+  </si>
+  <si>
+    <t>Ap #441-8233 Ac  Rd.</t>
+  </si>
+  <si>
+    <t>Sherbrooke</t>
+  </si>
+  <si>
+    <t>Deleon</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>interdum.feugiat@tristiqueaceleifend.co.uk</t>
+  </si>
+  <si>
+    <t>796-1110 Eu  St.</t>
+  </si>
+  <si>
+    <t>Morinville</t>
+  </si>
+  <si>
+    <t>Morse</t>
+  </si>
+  <si>
+    <t>Tamara</t>
+  </si>
+  <si>
+    <t>Suspendisse.tristique@purusgravidasagittis.net</t>
+  </si>
+  <si>
+    <t>2842 Cras  Rd.</t>
+  </si>
+  <si>
+    <t>65-340</t>
+  </si>
+  <si>
+    <t>Vandoies/Vintl</t>
+  </si>
+  <si>
+    <t>Imelda</t>
+  </si>
+  <si>
+    <t>tincidunt.orci@Fusce.org</t>
+  </si>
+  <si>
+    <t>Postfach 105, 4340 Risus. St.</t>
+  </si>
+  <si>
+    <t>06405-982</t>
+  </si>
+  <si>
+    <t>Dibrugarh</t>
+  </si>
+  <si>
+    <t>Jennings</t>
+  </si>
+  <si>
+    <t>vel.vulputate.eu@tellusfaucibusleo.edu</t>
+  </si>
+  <si>
+    <t>Postfach 979, 7701 Elit,  Ave</t>
+  </si>
+  <si>
+    <t>Hamoir</t>
+  </si>
+  <si>
+    <t>Shelton</t>
+  </si>
+  <si>
+    <t>Craig</t>
+  </si>
+  <si>
+    <t>auctor.odio@velit.org</t>
+  </si>
+  <si>
+    <t>Postfach 176, 1407 Neque.  Av.</t>
+  </si>
+  <si>
+    <t>Nazilli</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Quemby</t>
+  </si>
+  <si>
+    <t>diam.Sed@utquamvel.co.uk</t>
+  </si>
+  <si>
+    <t>Postfach 674, 9665 Eu St.</t>
+  </si>
+  <si>
+    <t>Tewkesbury</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Selma</t>
+  </si>
+  <si>
+    <t>dolor.sit.amet@sollicitudinorcisem.ca</t>
+  </si>
+  <si>
+    <t>Postfach 555, 2988 Suspendisse  St.</t>
+  </si>
+  <si>
+    <t>Moen</t>
+  </si>
+  <si>
+    <t>Mccoy</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>convallis@duinecurna.net</t>
+  </si>
+  <si>
+    <t>623-139 Sed  St.</t>
+  </si>
+  <si>
+    <t>Marcedusa</t>
+  </si>
+  <si>
+    <t>Morrow</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>risus.Nunc@nec.ca</t>
+  </si>
+  <si>
+    <t>124-2830 Consectetuer  Rd.</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Russo</t>
+  </si>
+  <si>
+    <t>Alika</t>
+  </si>
+  <si>
+    <t>risus.odio.auctor@urnaNuncquis.co.uk</t>
+  </si>
+  <si>
+    <t>383-4051 Donec  Av.</t>
+  </si>
+  <si>
+    <t>Coupar Angus</t>
+  </si>
+  <si>
+    <t>Boyle</t>
+  </si>
+  <si>
+    <t>Beau</t>
+  </si>
+  <si>
+    <t>Cum.sociis@necante.co.uk</t>
+  </si>
+  <si>
+    <t>Postfach 555, 207 Ut  St.</t>
+  </si>
+  <si>
+    <t>Vastogirardi</t>
+  </si>
+  <si>
+    <t>Mcdonald</t>
+  </si>
+  <si>
+    <t>Ifeoma</t>
+  </si>
+  <si>
+    <t>Mauris.magna.Duis@fames.edu</t>
+  </si>
+  <si>
+    <t>5713 Vulputate  Rd.</t>
+  </si>
+  <si>
+    <t>3749 ZB</t>
+  </si>
+  <si>
+    <t>Dörtyol</t>
+  </si>
+  <si>
+    <t>Ballard</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>ut.pharetra.sed@enimEtiam.org</t>
+  </si>
+  <si>
+    <t>632-6906 At St.</t>
+  </si>
+  <si>
+    <t>Hijuelas</t>
+  </si>
+  <si>
+    <t>Valdez</t>
+  </si>
+  <si>
+    <t>Eden</t>
+  </si>
+  <si>
+    <t>lacinia.vitae.sodales@egestasligulaNullam.com</t>
+  </si>
+  <si>
+    <t>460-6082 Neque.  Avenue</t>
+  </si>
+  <si>
+    <t>Viña del Mar</t>
+  </si>
+  <si>
+    <t>Donovan</t>
+  </si>
+  <si>
+    <t>Casey</t>
+  </si>
+  <si>
+    <t>a@adipiscing.edu</t>
+  </si>
+  <si>
+    <t>4776 Lectus  Straße</t>
+  </si>
+  <si>
+    <t>Knokke</t>
+  </si>
+  <si>
+    <t>Larson</t>
+  </si>
+  <si>
+    <t>Burton</t>
+  </si>
+  <si>
+    <t>Fusce@risus.edu</t>
+  </si>
+  <si>
+    <t>Postfach 735, 4950 Mi  Av.</t>
+  </si>
+  <si>
+    <t>Güssing</t>
+  </si>
+  <si>
+    <t>Dudley</t>
+  </si>
+  <si>
+    <t>Jescie</t>
+  </si>
+  <si>
+    <t>dolor.Quisque@imperdietdictum.ca</t>
+  </si>
+  <si>
+    <t>Postfach 534, 8938 Tempus  Avenue</t>
+  </si>
+  <si>
+    <t>Yellowhead County</t>
+  </si>
+  <si>
+    <t>Wanda</t>
+  </si>
+  <si>
+    <t>congue.a.aliquet@turpisIncondimentum.co.uk</t>
+  </si>
+  <si>
+    <t>844-7130 Gravida  Rd.</t>
+  </si>
+  <si>
+    <t>Marilles</t>
+  </si>
+  <si>
+    <t>Chan</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>sed.facilisis@egestasnunc.co.uk</t>
+  </si>
+  <si>
+    <t>Postfach 934, 981 Semper  Ave</t>
+  </si>
+  <si>
+    <t>9914 MG</t>
+  </si>
+  <si>
+    <t>Bergen</t>
+  </si>
+  <si>
+    <t>Kline</t>
+  </si>
+  <si>
+    <t>Isaac</t>
+  </si>
+  <si>
+    <t>risus@Suspendissedui.edu</t>
+  </si>
+  <si>
+    <t>Ap #395-9672 Lorem  St.</t>
+  </si>
+  <si>
+    <t>Blehen</t>
+  </si>
+  <si>
+    <t>Mcgowan</t>
+  </si>
+  <si>
+    <t>Oprah</t>
+  </si>
+  <si>
+    <t>lorem@sitamet.co.uk</t>
+  </si>
+  <si>
+    <t>Ap #174-3586 Leo.  St.</t>
+  </si>
+  <si>
+    <t>Zonhoven</t>
+  </si>
+  <si>
+    <t>Henson</t>
+  </si>
+  <si>
+    <t>Sylvester</t>
+  </si>
+  <si>
+    <t>mauris@Pellentesqueutipsum.com</t>
+  </si>
+  <si>
+    <t>7292 Venenatis  Ave</t>
+  </si>
+  <si>
+    <t>ER44 0QO</t>
+  </si>
+  <si>
+    <t>Sapele</t>
+  </si>
+  <si>
+    <t>Colon</t>
+  </si>
+  <si>
+    <t>ligula.Aliquam.erat@ametultriciessem.ca</t>
+  </si>
+  <si>
+    <t>448-7447 Egestas  Rd.</t>
+  </si>
+  <si>
+    <t>Holcomb</t>
+  </si>
+  <si>
+    <t>Brynne</t>
+  </si>
+  <si>
+    <t>amet@Donecvitaeerat.com</t>
+  </si>
+  <si>
+    <t>8044 Purus.  Ave</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>Frazier</t>
+  </si>
+  <si>
+    <t>Leslie</t>
+  </si>
+  <si>
+    <t>urna.convallis@arcuet.edu</t>
+  </si>
+  <si>
+    <t>992-2772 Et  Av.</t>
+  </si>
+  <si>
+    <t>Bamberg</t>
+  </si>
+  <si>
+    <t>Vazquez</t>
+  </si>
+  <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>Nullam.enim@id.edu</t>
+  </si>
+  <si>
+    <t>4379 Elementum St.</t>
+  </si>
+  <si>
+    <t>Sant'Agata Bolognese</t>
+  </si>
+  <si>
+    <t>Mclean</t>
+  </si>
+  <si>
+    <t>Jerome</t>
+  </si>
+  <si>
+    <t>lacinia@nibh.com</t>
+  </si>
+  <si>
+    <t>Ap #532-2150 Lorem,  Straße</t>
+  </si>
+  <si>
+    <t>Nuraminis</t>
+  </si>
+  <si>
+    <t>Pollard</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>sed.sem.egestas@cursus.edu</t>
+  </si>
+  <si>
+    <t>372-2101 Eu  Rd.</t>
+  </si>
+  <si>
+    <t>58812-467</t>
+  </si>
+  <si>
+    <t>Aligarh</t>
+  </si>
+  <si>
+    <t>Zimmerman</t>
+  </si>
+  <si>
+    <t>Elvis</t>
+  </si>
+  <si>
+    <t>sem@Etiamvestibulum.net</t>
+  </si>
+  <si>
+    <t>2542 Ante St.</t>
+  </si>
+  <si>
+    <t>Gilly</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Sed.et@augue.edu</t>
+  </si>
+  <si>
+    <t>328-339 Iaculis  Straße</t>
+  </si>
+  <si>
+    <t>Płock</t>
+  </si>
+  <si>
+    <t>Padilla</t>
+  </si>
+  <si>
+    <t>Talon</t>
+  </si>
+  <si>
+    <t>sed.consequat.auctor@elitpharetraut.com</t>
+  </si>
+  <si>
+    <t>Ap #955-2004 Semper  Straße</t>
+  </si>
+  <si>
+    <t>05-716</t>
+  </si>
+  <si>
+    <t>Glabais</t>
+  </si>
+  <si>
+    <t>Beck</t>
+  </si>
+  <si>
+    <t>quis.turpis@lacus.ca</t>
+  </si>
+  <si>
+    <t>675-9754 Maecenas St.</t>
+  </si>
+  <si>
+    <t>Haldia</t>
+  </si>
+  <si>
+    <t>Derek</t>
+  </si>
+  <si>
+    <t>sapien.Cras@magnisdis.co.uk</t>
+  </si>
+  <si>
+    <t>Ap #271-8027 Consectetuer,  Avenue</t>
+  </si>
+  <si>
+    <t>Luik</t>
+  </si>
+  <si>
+    <t>Conway</t>
+  </si>
+  <si>
+    <t>Stewart</t>
+  </si>
+  <si>
+    <t>ipsum@magnaCras.com</t>
+  </si>
+  <si>
+    <t>7593 Iaculis  Rd.</t>
+  </si>
+  <si>
+    <t>Covington</t>
+  </si>
+  <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>Sopoline</t>
+  </si>
+  <si>
+    <t>orci@Cras.com</t>
+  </si>
+  <si>
+    <t>3122 Sollicitudin  Ave</t>
+  </si>
+  <si>
+    <t>Saint-Marcel</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Laith</t>
+  </si>
+  <si>
+    <t>augue@semNullainterdum.edu</t>
+  </si>
+  <si>
+    <t>Ap #821-7147 Placerat  Rd.</t>
+  </si>
+  <si>
+    <t>43-011</t>
+  </si>
+  <si>
+    <t>Linsmeau</t>
+  </si>
+  <si>
+    <t>Blackwell</t>
+  </si>
+  <si>
+    <t>MacKenzie</t>
+  </si>
+  <si>
+    <t>dui@aliquetvel.edu</t>
+  </si>
+  <si>
+    <t>543-4430 Commodo  St.</t>
+  </si>
+  <si>
+    <t>Motherwell</t>
+  </si>
+  <si>
+    <t>Wilkerson</t>
+  </si>
+  <si>
+    <t>Xantha</t>
+  </si>
+  <si>
+    <t>tincidunt.Donec.vitae@urna.org</t>
+  </si>
+  <si>
+    <t>8723 Pellentesque, St.</t>
+  </si>
+  <si>
+    <t>Villar Pellice</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Naida</t>
+  </si>
+  <si>
+    <t>nec@ipsumprimis.edu</t>
+  </si>
+  <si>
+    <t>529-1463 Donec  Straße</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
+    <t>Gates</t>
+  </si>
+  <si>
+    <t>Chanda</t>
+  </si>
+  <si>
+    <t>ornare.elit.elit@porttitorinterdumSed.org</t>
+  </si>
+  <si>
+    <t>Postfach 450, 5480 Dignissim  Rd.</t>
+  </si>
+  <si>
+    <t>Bo‘lhe</t>
+  </si>
+  <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>vulputate.risus@velconvallis.co.uk</t>
+  </si>
+  <si>
+    <t>Ap #737-6453 Semper  Av.</t>
+  </si>
+  <si>
+    <t>10867-725</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Stephens</t>
+  </si>
+  <si>
+    <t>Mohammad</t>
+  </si>
+  <si>
+    <t>sagittis.augue@tellusid.com</t>
+  </si>
+  <si>
+    <t>Postfach 732, 3514 Quam,  Avenue</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>Love</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>enim@esttempor.org</t>
+  </si>
+  <si>
+    <t>9335 Purus St.</t>
+  </si>
+  <si>
+    <t>Bath</t>
+  </si>
+  <si>
+    <t>Hyatt</t>
+  </si>
+  <si>
+    <t>Curae.Donec.tincidunt@varius.edu</t>
+  </si>
+  <si>
+    <t>219-8121 A  Av.</t>
+  </si>
+  <si>
+    <t>Hearst</t>
+  </si>
+  <si>
+    <t>Doyle</t>
+  </si>
+  <si>
+    <t>Sloane</t>
+  </si>
+  <si>
+    <t>habitant.morbi.tristique@adipiscingelit.ca</t>
+  </si>
+  <si>
+    <t>Ap #206-829 Adipiscing  Straße</t>
+  </si>
+  <si>
+    <t>J9Z 8N6</t>
+  </si>
+  <si>
+    <t>Mangalore</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Cole</t>
+  </si>
+  <si>
+    <t>convallis.erat@ipsumprimisin.net</t>
+  </si>
+  <si>
+    <t>309-9776 Et  Rd.</t>
+  </si>
+  <si>
+    <t>Sint-Niklaas</t>
+  </si>
+  <si>
+    <t>Bentley</t>
+  </si>
+  <si>
+    <t>et@sagittisDuisgravida.org</t>
+  </si>
+  <si>
+    <t>4135 Libero  Rd.</t>
+  </si>
+  <si>
+    <t>35-458</t>
+  </si>
+  <si>
+    <t>San Felipe</t>
+  </si>
+  <si>
+    <t>Powell</t>
+  </si>
+  <si>
+    <t>ante@sagittislobortismauris.co.uk</t>
+  </si>
+  <si>
+    <t>Ap #257-1087 Eu  Avenue</t>
+  </si>
+  <si>
+    <t>Fernie</t>
+  </si>
+  <si>
+    <t>Testdata from http://www.generatedata.com/?lang=de</t>
+  </si>
+  <si>
+    <t>molestie @vitaenibh.org</t>
+  </si>
+  <si>
+    <t>17 12.89</t>
   </si>
 </sst>
 </file>
@@ -121,7 +1664,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,6 +1700,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -179,7 +1729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -202,6 +1752,15 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -516,6 +2075,2666 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CD091A-A82C-7342-A63E-91B2ED3E45EC}">
+  <dimension ref="A1:H103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="14">
+        <v>52267</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="15">
+        <v>31522</v>
+      </c>
+      <c r="H4" s="18">
+        <v>7083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="14">
+        <v>81471</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="15">
+        <v>21805</v>
+      </c>
+      <c r="H5" s="18">
+        <v>5691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="14">
+        <v>98116</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="15">
+        <v>31887</v>
+      </c>
+      <c r="H6" s="18">
+        <v>8331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="14">
+        <v>60545</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="15">
+        <v>8112</v>
+      </c>
+      <c r="H7" s="18">
+        <v>5738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="20">
+        <v>5</v>
+      </c>
+      <c r="H8" s="18">
+        <v>5932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="14">
+        <v>47759</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="15">
+        <v>11870</v>
+      </c>
+      <c r="H9" s="18">
+        <v>5678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="14">
+        <v>733383</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="H10" s="18">
+        <v>5624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="14">
+        <v>8042</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="15">
+        <v>15672</v>
+      </c>
+      <c r="H11" s="18">
+        <v>8456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="14">
+        <v>16864</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="15">
+        <v>25746</v>
+      </c>
+      <c r="H12" s="18">
+        <v>5463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="14">
+        <v>8864</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="15">
+        <v>21773</v>
+      </c>
+      <c r="H13" s="18">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="14">
+        <v>35862</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="15">
+        <v>19988</v>
+      </c>
+      <c r="H14" s="18">
+        <v>8331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="15">
+        <v>9766</v>
+      </c>
+      <c r="H15" s="18">
+        <v>6289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1602</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="15">
+        <v>858</v>
+      </c>
+      <c r="H16" s="18">
+        <v>5469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="15">
+        <v>30333</v>
+      </c>
+      <c r="H17" s="18">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="14">
+        <v>80463</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="15">
+        <v>23588</v>
+      </c>
+      <c r="H18" s="18">
+        <v>9718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="15">
+        <v>30047</v>
+      </c>
+      <c r="H19" s="18">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="14">
+        <v>34628</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="15">
+        <v>33334</v>
+      </c>
+      <c r="H20" s="18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="14">
+        <v>9914</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="15">
+        <v>31427</v>
+      </c>
+      <c r="H21" s="18">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="14">
+        <v>10529</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="15">
+        <v>239</v>
+      </c>
+      <c r="H22" s="18">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="14">
+        <v>20207</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="15">
+        <v>10712</v>
+      </c>
+      <c r="H23" s="18">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="14">
+        <v>44879</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="15">
+        <v>20166</v>
+      </c>
+      <c r="H24" s="18">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="14">
+        <v>71340</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="15">
+        <v>29311</v>
+      </c>
+      <c r="H25" s="18">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="14">
+        <v>95173</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="15">
+        <v>29861</v>
+      </c>
+      <c r="H26" s="18">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="14">
+        <v>37439</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="15">
+        <v>23920</v>
+      </c>
+      <c r="H27" s="18">
+        <v>9792</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="15">
+        <v>34598</v>
+      </c>
+      <c r="H28" s="18">
+        <v>6961</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="15">
+        <v>25071</v>
+      </c>
+      <c r="H29" s="18">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="14">
+        <v>967755</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="15">
+        <v>35279</v>
+      </c>
+      <c r="H30" s="18">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="15">
+        <v>9192</v>
+      </c>
+      <c r="H31" s="18">
+        <v>9579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="14">
+        <v>228857</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="15">
+        <v>11041</v>
+      </c>
+      <c r="H32" s="18">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" s="15">
+        <v>24910</v>
+      </c>
+      <c r="H33" s="18">
+        <v>5344</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="14">
+        <v>783798</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G34" s="15">
+        <v>375</v>
+      </c>
+      <c r="H34" s="18">
+        <v>5935</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" s="14">
+        <v>8412</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="G35" s="15">
+        <v>28335</v>
+      </c>
+      <c r="H35" s="18">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="14">
+        <v>6497</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" s="15">
+        <v>33330</v>
+      </c>
+      <c r="H36" s="18">
+        <v>6432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E37" s="14">
+        <v>852016</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G37" s="15">
+        <v>11720</v>
+      </c>
+      <c r="H37" s="18">
+        <v>8591</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G38" s="15">
+        <v>18207</v>
+      </c>
+      <c r="H38" s="18">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" s="14">
+        <v>72146</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="G39" s="15">
+        <v>34324</v>
+      </c>
+      <c r="H39" s="18">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E40" s="14">
+        <v>63621</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="G40" s="15">
+        <v>34860</v>
+      </c>
+      <c r="H40" s="18">
+        <v>8229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="14">
+        <v>5660</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G41" s="15">
+        <v>25153</v>
+      </c>
+      <c r="H41" s="18">
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E42" s="14">
+        <v>31729</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="G42" s="15">
+        <v>249</v>
+      </c>
+      <c r="H42" s="18">
+        <v>5485</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" s="14">
+        <v>92324</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="G43" s="15">
+        <v>8545</v>
+      </c>
+      <c r="H43" s="18">
+        <v>5969</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E44" s="14">
+        <v>11313</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G44" s="15">
+        <v>13939</v>
+      </c>
+      <c r="H44" s="18">
+        <v>6234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E45" s="14">
+        <v>30212</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="G45" s="15">
+        <v>28292</v>
+      </c>
+      <c r="H45" s="18">
+        <v>9468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G46" s="15">
+        <v>31775</v>
+      </c>
+      <c r="H46" s="18">
+        <v>6569</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="G47" s="15">
+        <v>21127</v>
+      </c>
+      <c r="H47" s="18">
+        <v>7476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E48" s="14">
+        <v>5294</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="G48" s="15">
+        <v>28287</v>
+      </c>
+      <c r="H48" s="18">
+        <v>7977</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="G49" s="15">
+        <v>8908</v>
+      </c>
+      <c r="H49" s="18">
+        <v>5618</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="E50" s="14">
+        <v>3603</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="G50" s="15">
+        <v>21262</v>
+      </c>
+      <c r="H50" s="18">
+        <v>9117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E51" s="14">
+        <v>80809</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G51" s="15">
+        <v>8953</v>
+      </c>
+      <c r="H51" s="18">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="E52" s="14">
+        <v>16486</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="G52" s="15">
+        <v>27046</v>
+      </c>
+      <c r="H52" s="18">
+        <v>7241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E53" s="14">
+        <v>4521</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G53" s="15">
+        <v>14100</v>
+      </c>
+      <c r="H53" s="18">
+        <v>7614</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E54" s="14">
+        <v>67386</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="G54" s="15">
+        <v>26797</v>
+      </c>
+      <c r="H54" s="18">
+        <v>6409</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E55" s="14">
+        <v>9694</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="G55" s="15">
+        <v>23468</v>
+      </c>
+      <c r="H55" s="18">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E56" s="14">
+        <v>52318</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="G56" s="15">
+        <v>36282</v>
+      </c>
+      <c r="H56" s="18">
+        <v>5873</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G57" s="15">
+        <v>26623</v>
+      </c>
+      <c r="H57" s="18">
+        <v>8348</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G58" s="15">
+        <v>18822</v>
+      </c>
+      <c r="H58" s="18">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E59" s="14">
+        <v>533841</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="G59" s="15">
+        <v>35255</v>
+      </c>
+      <c r="H59" s="18">
+        <v>8267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E60" s="14">
+        <v>323844</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="G60" s="15">
+        <v>18849</v>
+      </c>
+      <c r="H60" s="18">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E61" s="14">
+        <v>651890</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G61" s="15">
+        <v>24611</v>
+      </c>
+      <c r="H61" s="18">
+        <v>6741</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E62" s="14">
+        <v>5555</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="G62" s="15">
+        <v>30280</v>
+      </c>
+      <c r="H62" s="18">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="E63" s="14">
+        <v>969217</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="G63" s="15">
+        <v>34742</v>
+      </c>
+      <c r="H63" s="18">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="E64" s="14">
+        <v>7102</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="G64" s="15">
+        <v>15356</v>
+      </c>
+      <c r="H64" s="18">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="E65" s="14">
+        <v>4591</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="G65" s="15">
+        <v>32259</v>
+      </c>
+      <c r="H65" s="18">
+        <v>9953</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="E66" s="14">
+        <v>8105</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="G66" s="15">
+        <v>823</v>
+      </c>
+      <c r="H66" s="18">
+        <v>7247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="G67" s="15">
+        <v>24345</v>
+      </c>
+      <c r="H67" s="18">
+        <v>7083</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="E68" s="14">
+        <v>414369</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G68" s="15">
+        <v>11290</v>
+      </c>
+      <c r="H68" s="18">
+        <v>9993</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="E69" s="14">
+        <v>6582</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="G69" s="15">
+        <v>25782</v>
+      </c>
+      <c r="H69" s="18">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="E70" s="14">
+        <v>79087</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G70" s="15">
+        <v>23469</v>
+      </c>
+      <c r="H70" s="18">
+        <v>5624</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E71" s="14">
+        <v>21613</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="G71" s="15">
+        <v>15018</v>
+      </c>
+      <c r="H71" s="18">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E72" s="14">
+        <v>94694</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="G72" s="15">
+        <v>10863</v>
+      </c>
+      <c r="H72" s="18">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E73" s="14">
+        <v>6980</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="G73" s="15">
+        <v>15120</v>
+      </c>
+      <c r="H73" s="18">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="G74" s="15">
+        <v>29074</v>
+      </c>
+      <c r="H74" s="18">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E75" s="14">
+        <v>19942</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="G75" s="15">
+        <v>9984</v>
+      </c>
+      <c r="H75" s="18">
+        <v>8649</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="E76" s="14">
+        <v>53071</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="G76" s="15">
+        <v>29833</v>
+      </c>
+      <c r="H76" s="18">
+        <v>7841</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="G77" s="15">
+        <v>26703</v>
+      </c>
+      <c r="H77" s="18">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E78" s="14">
+        <v>54649</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G78" s="15">
+        <v>14470</v>
+      </c>
+      <c r="H78" s="18">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E79" s="14">
+        <v>42250</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="G79" s="15">
+        <v>29451</v>
+      </c>
+      <c r="H79" s="18">
+        <v>9364</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="E80" s="14">
+        <v>3964</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="G80" s="15">
+        <v>17222</v>
+      </c>
+      <c r="H80" s="18">
+        <v>6517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="E81" s="14">
+        <v>1422</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="G81" s="15">
+        <v>33996</v>
+      </c>
+      <c r="H81" s="18">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="E82" s="14">
+        <v>95564</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="G82" s="15">
+        <v>26353</v>
+      </c>
+      <c r="H82" s="18">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="G83" s="15">
+        <v>11851</v>
+      </c>
+      <c r="H83" s="18">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="E84" s="14">
+        <v>4274</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="G84" s="15">
+        <v>11940</v>
+      </c>
+      <c r="H84" s="18">
+        <v>4963</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="E85" s="14">
+        <v>36673</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="G85" s="15">
+        <v>35368</v>
+      </c>
+      <c r="H85" s="18">
+        <v>7451</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="G86" s="15">
+        <v>9515</v>
+      </c>
+      <c r="H86" s="18">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="E87" s="14">
+        <v>5862</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="G87" s="15">
+        <v>28966</v>
+      </c>
+      <c r="H87" s="18">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="E88" s="14">
+        <v>735018</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G88" s="15">
+        <v>25170</v>
+      </c>
+      <c r="H88" s="18">
+        <v>6570</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E89" s="14">
+        <v>32527</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="G89" s="15">
+        <v>562</v>
+      </c>
+      <c r="H89" s="18">
+        <v>7627</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="E90" s="14">
+        <v>6212</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G90" s="15">
+        <v>20041</v>
+      </c>
+      <c r="H90" s="18">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="G91" s="15">
+        <v>26600</v>
+      </c>
+      <c r="H91" s="18">
+        <v>6172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="E92" s="14">
+        <v>1835</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="G92" s="15">
+        <v>31240</v>
+      </c>
+      <c r="H92" s="18">
+        <v>7756</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="E93" s="14">
+        <v>86515</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="G93" s="15">
+        <v>36439</v>
+      </c>
+      <c r="H93" s="18">
+        <v>9939</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="E94" s="14">
+        <v>9522</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="G94" s="15">
+        <v>715</v>
+      </c>
+      <c r="H94" s="18">
+        <v>9419</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="E95" s="14">
+        <v>55246</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="G95" s="15">
+        <v>34163</v>
+      </c>
+      <c r="H95" s="18">
+        <v>6578</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="G96" s="15">
+        <v>32069</v>
+      </c>
+      <c r="H96" s="18">
+        <v>9247</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="E97" s="14">
+        <v>59129</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="G97" s="15">
+        <v>25700</v>
+      </c>
+      <c r="H97" s="18">
+        <v>6436</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="E98" s="14">
+        <v>4004</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="G98" s="15">
+        <v>1301</v>
+      </c>
+      <c r="H98" s="18">
+        <v>6555</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E99" s="14">
+        <v>9259</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="G99" s="15">
+        <v>32616</v>
+      </c>
+      <c r="H99" s="18">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="G100" s="15">
+        <v>29008</v>
+      </c>
+      <c r="H100" s="18">
+        <v>6698</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="E101" s="14">
+        <v>50613</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="G101" s="15">
+        <v>11852</v>
+      </c>
+      <c r="H101" s="18">
+        <v>4853</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="G102" s="15">
+        <v>7601</v>
+      </c>
+      <c r="H102" s="18">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="E103" s="14">
+        <v>8958</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="G103" s="15">
+        <v>22815</v>
+      </c>
+      <c r="H103" s="18">
+        <v>4691</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:H3" xr:uid="{18C438A4-AFEA-B54A-B6FE-79E98918D2BF}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111F246E-EEF3-DD4C-B295-A2DBE68EE3E6}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -596,12 +4815,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FDF904-A3CB-C64E-BE3C-0B7C9F82B373}">
   <dimension ref="A1:E2427"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -750,1722 +4969,2967 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
       <c r="D19"/>
       <c r="E19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16</v>
+      </c>
       <c r="D20"/>
       <c r="E20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>17</v>
+      </c>
       <c r="D21"/>
       <c r="E21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>18</v>
+      </c>
       <c r="D22"/>
       <c r="E22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>19</v>
+      </c>
       <c r="D23"/>
       <c r="E23"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20</v>
+      </c>
       <c r="D24"/>
       <c r="E24"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>21</v>
+      </c>
       <c r="D25"/>
       <c r="E25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>22</v>
+      </c>
       <c r="D26"/>
       <c r="E26"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>23</v>
+      </c>
       <c r="D27"/>
       <c r="E27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>24</v>
+      </c>
       <c r="D28"/>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>25</v>
+      </c>
       <c r="D29"/>
       <c r="E29"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>26</v>
+      </c>
       <c r="D30"/>
       <c r="E30"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>27</v>
+      </c>
       <c r="D31"/>
       <c r="E31"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>28</v>
+      </c>
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>29</v>
+      </c>
       <c r="D33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>30</v>
+      </c>
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>31</v>
+      </c>
       <c r="D35"/>
       <c r="E35"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>32</v>
+      </c>
       <c r="D36"/>
       <c r="E36"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>33</v>
+      </c>
       <c r="D37"/>
       <c r="E37"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>34</v>
+      </c>
       <c r="D38"/>
       <c r="E38"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>35</v>
+      </c>
       <c r="D39"/>
       <c r="E39"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>36</v>
+      </c>
       <c r="D40"/>
       <c r="E40"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>37</v>
+      </c>
       <c r="D41"/>
       <c r="E41"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>38</v>
+      </c>
       <c r="D42"/>
       <c r="E42"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>39</v>
+      </c>
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>40</v>
+      </c>
       <c r="D44"/>
       <c r="E44"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>41</v>
+      </c>
       <c r="D45"/>
       <c r="E45"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>42</v>
+      </c>
       <c r="D46"/>
       <c r="E46"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>43</v>
+      </c>
       <c r="D47"/>
       <c r="E47"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>44</v>
+      </c>
       <c r="D48"/>
       <c r="E48"/>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>45</v>
+      </c>
       <c r="D49"/>
       <c r="E49"/>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>46</v>
+      </c>
       <c r="D50"/>
       <c r="E50"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>47</v>
+      </c>
       <c r="D51"/>
       <c r="E51"/>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>48</v>
+      </c>
       <c r="D52"/>
       <c r="E52"/>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>49</v>
+      </c>
       <c r="D53"/>
       <c r="E53"/>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>50</v>
+      </c>
       <c r="D54"/>
       <c r="E54"/>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>51</v>
+      </c>
       <c r="D55"/>
       <c r="E55"/>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>52</v>
+      </c>
       <c r="D56"/>
       <c r="E56"/>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>53</v>
+      </c>
       <c r="D57"/>
       <c r="E57"/>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>54</v>
+      </c>
       <c r="D58"/>
       <c r="E58"/>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>55</v>
+      </c>
       <c r="D59"/>
       <c r="E59"/>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>56</v>
+      </c>
       <c r="D60"/>
       <c r="E60"/>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>57</v>
+      </c>
       <c r="D61"/>
       <c r="E61"/>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>58</v>
+      </c>
       <c r="D62"/>
       <c r="E62"/>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>59</v>
+      </c>
       <c r="D63"/>
       <c r="E63"/>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>60</v>
+      </c>
       <c r="D64"/>
       <c r="E64"/>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>61</v>
+      </c>
       <c r="D65"/>
       <c r="E65"/>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>62</v>
+      </c>
       <c r="D66"/>
       <c r="E66"/>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>63</v>
+      </c>
       <c r="D67"/>
       <c r="E67"/>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>64</v>
+      </c>
       <c r="D68"/>
       <c r="E68"/>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>65</v>
+      </c>
       <c r="D69"/>
       <c r="E69"/>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>66</v>
+      </c>
       <c r="D70"/>
       <c r="E70"/>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>67</v>
+      </c>
       <c r="D71"/>
       <c r="E71"/>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>68</v>
+      </c>
       <c r="D72"/>
       <c r="E72"/>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>69</v>
+      </c>
       <c r="D73"/>
       <c r="E73"/>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>70</v>
+      </c>
       <c r="D74"/>
       <c r="E74"/>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>71</v>
+      </c>
       <c r="D75"/>
       <c r="E75"/>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>72</v>
+      </c>
       <c r="D76"/>
       <c r="E76"/>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>73</v>
+      </c>
       <c r="D77"/>
       <c r="E77"/>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>74</v>
+      </c>
       <c r="D78"/>
       <c r="E78"/>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>75</v>
+      </c>
       <c r="D79"/>
       <c r="E79"/>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>76</v>
+      </c>
       <c r="D80"/>
       <c r="E80"/>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>77</v>
+      </c>
       <c r="D81"/>
       <c r="E81"/>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>78</v>
+      </c>
       <c r="D82"/>
       <c r="E82"/>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>79</v>
+      </c>
       <c r="D83"/>
       <c r="E83"/>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>80</v>
+      </c>
       <c r="D84"/>
       <c r="E84"/>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>81</v>
+      </c>
       <c r="D85"/>
       <c r="E85"/>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>82</v>
+      </c>
       <c r="D86"/>
       <c r="E86"/>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>83</v>
+      </c>
       <c r="D87"/>
       <c r="E87"/>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>84</v>
+      </c>
       <c r="D88"/>
       <c r="E88"/>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>85</v>
+      </c>
       <c r="D89"/>
       <c r="E89"/>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>86</v>
+      </c>
       <c r="D90"/>
       <c r="E90"/>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>87</v>
+      </c>
       <c r="D91"/>
       <c r="E91"/>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>88</v>
+      </c>
       <c r="D92"/>
       <c r="E92"/>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>89</v>
+      </c>
       <c r="D93"/>
       <c r="E93"/>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>90</v>
+      </c>
       <c r="D94"/>
       <c r="E94"/>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>91</v>
+      </c>
       <c r="D95"/>
       <c r="E95"/>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>92</v>
+      </c>
       <c r="D96"/>
       <c r="E96"/>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>93</v>
+      </c>
       <c r="D97"/>
       <c r="E97"/>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>94</v>
+      </c>
       <c r="D98"/>
       <c r="E98"/>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>95</v>
+      </c>
       <c r="D99"/>
       <c r="E99"/>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>96</v>
+      </c>
       <c r="D100"/>
       <c r="E100"/>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>97</v>
+      </c>
       <c r="D101"/>
       <c r="E101"/>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>98</v>
+      </c>
       <c r="D102"/>
       <c r="E102"/>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>99</v>
+      </c>
       <c r="D103"/>
       <c r="E103"/>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>100</v>
+      </c>
       <c r="D104"/>
       <c r="E104"/>
     </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>101</v>
+      </c>
       <c r="D105"/>
       <c r="E105"/>
     </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>102</v>
+      </c>
       <c r="D106"/>
       <c r="E106"/>
     </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>103</v>
+      </c>
       <c r="D107"/>
       <c r="E107"/>
     </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>104</v>
+      </c>
       <c r="D108"/>
       <c r="E108"/>
     </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>105</v>
+      </c>
       <c r="D109"/>
       <c r="E109"/>
     </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>106</v>
+      </c>
       <c r="D110"/>
       <c r="E110"/>
     </row>
-    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>107</v>
+      </c>
       <c r="D111"/>
       <c r="E111"/>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>108</v>
+      </c>
       <c r="D112"/>
       <c r="E112"/>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>109</v>
+      </c>
       <c r="D113"/>
       <c r="E113"/>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>110</v>
+      </c>
       <c r="D114"/>
       <c r="E114"/>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>111</v>
+      </c>
       <c r="D115"/>
       <c r="E115"/>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>112</v>
+      </c>
       <c r="D116"/>
       <c r="E116"/>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>113</v>
+      </c>
       <c r="D117"/>
       <c r="E117"/>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>114</v>
+      </c>
       <c r="D118"/>
       <c r="E118"/>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>115</v>
+      </c>
       <c r="D119"/>
       <c r="E119"/>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>116</v>
+      </c>
       <c r="D120"/>
       <c r="E120"/>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>117</v>
+      </c>
       <c r="D121"/>
       <c r="E121"/>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>118</v>
+      </c>
       <c r="D122"/>
       <c r="E122"/>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>119</v>
+      </c>
       <c r="D123"/>
       <c r="E123"/>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>120</v>
+      </c>
       <c r="D124"/>
       <c r="E124"/>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>121</v>
+      </c>
       <c r="D125"/>
       <c r="E125"/>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>122</v>
+      </c>
       <c r="D126"/>
       <c r="E126"/>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>123</v>
+      </c>
       <c r="D127"/>
       <c r="E127"/>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>124</v>
+      </c>
       <c r="D128"/>
       <c r="E128"/>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>125</v>
+      </c>
       <c r="D129"/>
       <c r="E129"/>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>126</v>
+      </c>
       <c r="D130"/>
       <c r="E130"/>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>127</v>
+      </c>
       <c r="D131"/>
       <c r="E131"/>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>128</v>
+      </c>
       <c r="D132"/>
       <c r="E132"/>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>129</v>
+      </c>
       <c r="D133"/>
       <c r="E133"/>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>130</v>
+      </c>
       <c r="D134"/>
       <c r="E134"/>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>131</v>
+      </c>
       <c r="D135"/>
       <c r="E135"/>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>132</v>
+      </c>
       <c r="D136"/>
       <c r="E136"/>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>133</v>
+      </c>
       <c r="D137"/>
       <c r="E137"/>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>134</v>
+      </c>
       <c r="D138"/>
       <c r="E138"/>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>135</v>
+      </c>
       <c r="D139"/>
       <c r="E139"/>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>136</v>
+      </c>
       <c r="D140"/>
       <c r="E140"/>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>137</v>
+      </c>
       <c r="D141"/>
       <c r="E141"/>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>138</v>
+      </c>
       <c r="D142"/>
       <c r="E142"/>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>139</v>
+      </c>
       <c r="D143"/>
       <c r="E143"/>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>140</v>
+      </c>
       <c r="D144"/>
       <c r="E144"/>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>141</v>
+      </c>
       <c r="D145"/>
       <c r="E145"/>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>142</v>
+      </c>
       <c r="D146"/>
       <c r="E146"/>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>143</v>
+      </c>
       <c r="D147"/>
       <c r="E147"/>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>144</v>
+      </c>
       <c r="D148"/>
       <c r="E148"/>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>145</v>
+      </c>
       <c r="D149"/>
       <c r="E149"/>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>146</v>
+      </c>
       <c r="D150"/>
       <c r="E150"/>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>147</v>
+      </c>
       <c r="D151"/>
       <c r="E151"/>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>148</v>
+      </c>
       <c r="D152"/>
       <c r="E152"/>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>149</v>
+      </c>
       <c r="D153"/>
       <c r="E153"/>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>150</v>
+      </c>
       <c r="D154"/>
       <c r="E154"/>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>151</v>
+      </c>
       <c r="D155"/>
       <c r="E155"/>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>152</v>
+      </c>
       <c r="D156"/>
       <c r="E156"/>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>153</v>
+      </c>
       <c r="D157"/>
       <c r="E157"/>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>154</v>
+      </c>
       <c r="D158"/>
       <c r="E158"/>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>155</v>
+      </c>
       <c r="D159"/>
       <c r="E159"/>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>156</v>
+      </c>
       <c r="D160"/>
       <c r="E160"/>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>157</v>
+      </c>
       <c r="D161"/>
       <c r="E161"/>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>158</v>
+      </c>
       <c r="D162"/>
       <c r="E162"/>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>159</v>
+      </c>
       <c r="D163"/>
       <c r="E163"/>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>160</v>
+      </c>
       <c r="D164"/>
       <c r="E164"/>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>161</v>
+      </c>
       <c r="D165"/>
       <c r="E165"/>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>162</v>
+      </c>
       <c r="D166"/>
       <c r="E166"/>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>163</v>
+      </c>
       <c r="D167"/>
       <c r="E167"/>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>164</v>
+      </c>
       <c r="D168"/>
       <c r="E168"/>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>165</v>
+      </c>
       <c r="D169"/>
       <c r="E169"/>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>166</v>
+      </c>
       <c r="D170"/>
       <c r="E170"/>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>167</v>
+      </c>
       <c r="D171"/>
       <c r="E171"/>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>168</v>
+      </c>
       <c r="D172"/>
       <c r="E172"/>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>169</v>
+      </c>
       <c r="D173"/>
       <c r="E173"/>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>170</v>
+      </c>
       <c r="D174"/>
       <c r="E174"/>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>171</v>
+      </c>
       <c r="D175"/>
       <c r="E175"/>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>172</v>
+      </c>
       <c r="D176"/>
       <c r="E176"/>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>173</v>
+      </c>
       <c r="D177"/>
       <c r="E177"/>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>174</v>
+      </c>
       <c r="D178"/>
       <c r="E178"/>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>175</v>
+      </c>
       <c r="D179"/>
       <c r="E179"/>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>176</v>
+      </c>
       <c r="D180"/>
       <c r="E180"/>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>177</v>
+      </c>
       <c r="D181"/>
       <c r="E181"/>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>178</v>
+      </c>
       <c r="D182"/>
       <c r="E182"/>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>179</v>
+      </c>
       <c r="D183"/>
       <c r="E183"/>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>180</v>
+      </c>
       <c r="D184"/>
       <c r="E184"/>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>181</v>
+      </c>
       <c r="D185"/>
       <c r="E185"/>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>182</v>
+      </c>
       <c r="D186"/>
       <c r="E186"/>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>183</v>
+      </c>
       <c r="D187"/>
       <c r="E187"/>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>184</v>
+      </c>
       <c r="D188"/>
       <c r="E188"/>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>185</v>
+      </c>
       <c r="D189"/>
       <c r="E189"/>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>186</v>
+      </c>
       <c r="D190"/>
       <c r="E190"/>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>187</v>
+      </c>
       <c r="D191"/>
       <c r="E191"/>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>188</v>
+      </c>
       <c r="D192"/>
       <c r="E192"/>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>189</v>
+      </c>
       <c r="D193"/>
       <c r="E193"/>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>190</v>
+      </c>
       <c r="D194"/>
       <c r="E194"/>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>191</v>
+      </c>
       <c r="D195"/>
       <c r="E195"/>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>192</v>
+      </c>
       <c r="D196"/>
       <c r="E196"/>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>193</v>
+      </c>
       <c r="D197"/>
       <c r="E197"/>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>194</v>
+      </c>
       <c r="D198"/>
       <c r="E198"/>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>195</v>
+      </c>
       <c r="D199"/>
       <c r="E199"/>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>196</v>
+      </c>
       <c r="D200"/>
       <c r="E200"/>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>197</v>
+      </c>
       <c r="D201"/>
       <c r="E201"/>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>198</v>
+      </c>
       <c r="D202"/>
       <c r="E202"/>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>199</v>
+      </c>
       <c r="D203"/>
       <c r="E203"/>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>200</v>
+      </c>
       <c r="D204"/>
       <c r="E204"/>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>201</v>
+      </c>
       <c r="D205"/>
       <c r="E205"/>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>202</v>
+      </c>
       <c r="D206"/>
       <c r="E206"/>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>203</v>
+      </c>
       <c r="D207"/>
       <c r="E207"/>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>204</v>
+      </c>
       <c r="D208"/>
       <c r="E208"/>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>205</v>
+      </c>
       <c r="D209"/>
       <c r="E209"/>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>206</v>
+      </c>
       <c r="D210"/>
       <c r="E210"/>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>207</v>
+      </c>
       <c r="D211"/>
       <c r="E211"/>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>208</v>
+      </c>
       <c r="D212"/>
       <c r="E212"/>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>209</v>
+      </c>
       <c r="D213"/>
       <c r="E213"/>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>210</v>
+      </c>
       <c r="D214"/>
       <c r="E214"/>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>211</v>
+      </c>
       <c r="D215"/>
       <c r="E215"/>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>212</v>
+      </c>
       <c r="D216"/>
       <c r="E216"/>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>213</v>
+      </c>
       <c r="D217"/>
       <c r="E217"/>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>214</v>
+      </c>
       <c r="D218"/>
       <c r="E218"/>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>215</v>
+      </c>
       <c r="D219"/>
       <c r="E219"/>
     </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>216</v>
+      </c>
       <c r="D220"/>
       <c r="E220"/>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>217</v>
+      </c>
       <c r="D221"/>
       <c r="E221"/>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>218</v>
+      </c>
       <c r="D222"/>
       <c r="E222"/>
     </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>219</v>
+      </c>
       <c r="D223"/>
       <c r="E223"/>
     </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>220</v>
+      </c>
       <c r="D224"/>
       <c r="E224"/>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>221</v>
+      </c>
       <c r="D225"/>
       <c r="E225"/>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>222</v>
+      </c>
       <c r="D226"/>
       <c r="E226"/>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>223</v>
+      </c>
       <c r="D227"/>
       <c r="E227"/>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>224</v>
+      </c>
       <c r="D228"/>
       <c r="E228"/>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>225</v>
+      </c>
       <c r="D229"/>
       <c r="E229"/>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>226</v>
+      </c>
       <c r="D230"/>
       <c r="E230"/>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>227</v>
+      </c>
       <c r="D231"/>
       <c r="E231"/>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>228</v>
+      </c>
       <c r="D232"/>
       <c r="E232"/>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>229</v>
+      </c>
       <c r="D233"/>
       <c r="E233"/>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>230</v>
+      </c>
       <c r="D234"/>
       <c r="E234"/>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>231</v>
+      </c>
       <c r="D235"/>
       <c r="E235"/>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>232</v>
+      </c>
       <c r="D236"/>
       <c r="E236"/>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>233</v>
+      </c>
       <c r="D237"/>
       <c r="E237"/>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>234</v>
+      </c>
       <c r="D238"/>
       <c r="E238"/>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>235</v>
+      </c>
       <c r="D239"/>
       <c r="E239"/>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>236</v>
+      </c>
       <c r="D240"/>
       <c r="E240"/>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>237</v>
+      </c>
       <c r="D241"/>
       <c r="E241"/>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>238</v>
+      </c>
       <c r="D242"/>
       <c r="E242"/>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>239</v>
+      </c>
       <c r="D243"/>
       <c r="E243"/>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>240</v>
+      </c>
       <c r="D244"/>
       <c r="E244"/>
     </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>241</v>
+      </c>
       <c r="D245"/>
       <c r="E245"/>
     </row>
-    <row r="246" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>242</v>
+      </c>
       <c r="D246"/>
       <c r="E246"/>
     </row>
-    <row r="247" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>243</v>
+      </c>
       <c r="D247"/>
       <c r="E247"/>
     </row>
-    <row r="248" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>244</v>
+      </c>
       <c r="D248"/>
       <c r="E248"/>
     </row>
-    <row r="249" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>245</v>
+      </c>
       <c r="D249"/>
       <c r="E249"/>
     </row>
-    <row r="250" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>246</v>
+      </c>
       <c r="D250"/>
       <c r="E250"/>
     </row>
-    <row r="251" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>247</v>
+      </c>
       <c r="D251"/>
       <c r="E251"/>
     </row>
-    <row r="252" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>248</v>
+      </c>
       <c r="D252"/>
       <c r="E252"/>
     </row>
-    <row r="253" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>249</v>
+      </c>
       <c r="D253"/>
       <c r="E253"/>
     </row>
-    <row r="254" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>250</v>
+      </c>
       <c r="D254"/>
       <c r="E254"/>
     </row>
-    <row r="255" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>251</v>
+      </c>
       <c r="D255"/>
       <c r="E255"/>
     </row>
-    <row r="256" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>252</v>
+      </c>
       <c r="D256"/>
       <c r="E256"/>
     </row>
-    <row r="257" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>253</v>
+      </c>
       <c r="D257"/>
       <c r="E257"/>
     </row>
-    <row r="258" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>254</v>
+      </c>
       <c r="D258"/>
       <c r="E258"/>
     </row>
-    <row r="259" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>255</v>
+      </c>
       <c r="D259"/>
       <c r="E259"/>
     </row>
-    <row r="260" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>256</v>
+      </c>
       <c r="D260"/>
       <c r="E260"/>
     </row>
-    <row r="261" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>257</v>
+      </c>
       <c r="D261"/>
       <c r="E261"/>
     </row>
-    <row r="262" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>258</v>
+      </c>
       <c r="D262"/>
       <c r="E262"/>
     </row>
-    <row r="263" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>259</v>
+      </c>
       <c r="D263"/>
       <c r="E263"/>
     </row>
-    <row r="264" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>260</v>
+      </c>
       <c r="D264"/>
       <c r="E264"/>
     </row>
-    <row r="265" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>261</v>
+      </c>
       <c r="D265"/>
       <c r="E265"/>
     </row>
-    <row r="266" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>262</v>
+      </c>
       <c r="D266"/>
       <c r="E266"/>
     </row>
-    <row r="267" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>263</v>
+      </c>
       <c r="D267"/>
       <c r="E267"/>
     </row>
-    <row r="268" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>264</v>
+      </c>
       <c r="D268"/>
       <c r="E268"/>
     </row>
-    <row r="269" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>265</v>
+      </c>
       <c r="D269"/>
       <c r="E269"/>
     </row>
-    <row r="270" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>266</v>
+      </c>
       <c r="D270"/>
       <c r="E270"/>
     </row>
-    <row r="271" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>267</v>
+      </c>
       <c r="D271"/>
       <c r="E271"/>
     </row>
-    <row r="272" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>268</v>
+      </c>
       <c r="D272"/>
       <c r="E272"/>
     </row>
-    <row r="273" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>269</v>
+      </c>
       <c r="D273"/>
       <c r="E273"/>
     </row>
-    <row r="274" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>270</v>
+      </c>
       <c r="D274"/>
       <c r="E274"/>
     </row>
-    <row r="275" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>271</v>
+      </c>
       <c r="D275"/>
       <c r="E275"/>
     </row>
-    <row r="276" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>272</v>
+      </c>
       <c r="D276"/>
       <c r="E276"/>
     </row>
-    <row r="277" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>273</v>
+      </c>
       <c r="D277"/>
       <c r="E277"/>
     </row>
-    <row r="278" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>274</v>
+      </c>
       <c r="D278"/>
       <c r="E278"/>
     </row>
-    <row r="279" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>275</v>
+      </c>
       <c r="D279"/>
       <c r="E279"/>
     </row>
-    <row r="280" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>276</v>
+      </c>
       <c r="D280"/>
       <c r="E280"/>
     </row>
-    <row r="281" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>277</v>
+      </c>
       <c r="D281"/>
       <c r="E281"/>
     </row>
-    <row r="282" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>278</v>
+      </c>
       <c r="D282"/>
       <c r="E282"/>
     </row>
-    <row r="283" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>279</v>
+      </c>
       <c r="D283"/>
       <c r="E283"/>
     </row>
-    <row r="284" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>280</v>
+      </c>
       <c r="D284"/>
       <c r="E284"/>
     </row>
-    <row r="285" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>281</v>
+      </c>
       <c r="D285"/>
       <c r="E285"/>
     </row>
-    <row r="286" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>282</v>
+      </c>
       <c r="D286"/>
       <c r="E286"/>
     </row>
-    <row r="287" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>283</v>
+      </c>
       <c r="D287"/>
       <c r="E287"/>
     </row>
-    <row r="288" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>284</v>
+      </c>
       <c r="D288"/>
       <c r="E288"/>
     </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>285</v>
+      </c>
       <c r="D289"/>
       <c r="E289"/>
     </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>286</v>
+      </c>
       <c r="D290"/>
       <c r="E290"/>
     </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>287</v>
+      </c>
       <c r="D291"/>
       <c r="E291"/>
     </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>288</v>
+      </c>
       <c r="D292"/>
       <c r="E292"/>
     </row>
-    <row r="293" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>289</v>
+      </c>
       <c r="D293"/>
       <c r="E293"/>
     </row>
-    <row r="294" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>290</v>
+      </c>
       <c r="D294"/>
       <c r="E294"/>
     </row>
-    <row r="295" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>291</v>
+      </c>
       <c r="D295"/>
       <c r="E295"/>
     </row>
-    <row r="296" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>292</v>
+      </c>
       <c r="D296"/>
       <c r="E296"/>
     </row>
-    <row r="297" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>293</v>
+      </c>
       <c r="D297"/>
       <c r="E297"/>
     </row>
-    <row r="298" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>294</v>
+      </c>
       <c r="D298"/>
       <c r="E298"/>
     </row>
-    <row r="299" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>295</v>
+      </c>
       <c r="D299"/>
       <c r="E299"/>
     </row>
-    <row r="300" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>296</v>
+      </c>
       <c r="D300"/>
       <c r="E300"/>
     </row>
-    <row r="301" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>297</v>
+      </c>
       <c r="D301"/>
       <c r="E301"/>
     </row>
-    <row r="302" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>298</v>
+      </c>
       <c r="D302"/>
       <c r="E302"/>
     </row>
-    <row r="303" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>299</v>
+      </c>
       <c r="D303"/>
       <c r="E303"/>
     </row>
-    <row r="304" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>300</v>
+      </c>
       <c r="D304"/>
       <c r="E304"/>
     </row>
-    <row r="305" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>301</v>
+      </c>
       <c r="D305"/>
       <c r="E305"/>
     </row>
-    <row r="306" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>302</v>
+      </c>
       <c r="D306"/>
       <c r="E306"/>
     </row>
-    <row r="307" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>303</v>
+      </c>
       <c r="D307"/>
       <c r="E307"/>
     </row>
-    <row r="308" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>304</v>
+      </c>
       <c r="D308"/>
       <c r="E308"/>
     </row>
-    <row r="309" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>305</v>
+      </c>
       <c r="D309"/>
       <c r="E309"/>
     </row>
-    <row r="310" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>306</v>
+      </c>
       <c r="D310"/>
       <c r="E310"/>
     </row>
-    <row r="311" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>307</v>
+      </c>
       <c r="D311"/>
       <c r="E311"/>
     </row>
-    <row r="312" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>308</v>
+      </c>
       <c r="D312"/>
       <c r="E312"/>
     </row>
-    <row r="313" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>309</v>
+      </c>
       <c r="D313"/>
       <c r="E313"/>
     </row>
-    <row r="314" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>310</v>
+      </c>
       <c r="D314"/>
       <c r="E314"/>
     </row>
-    <row r="315" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>311</v>
+      </c>
       <c r="D315"/>
       <c r="E315"/>
     </row>
-    <row r="316" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>312</v>
+      </c>
       <c r="D316"/>
       <c r="E316"/>
     </row>
-    <row r="317" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>313</v>
+      </c>
       <c r="D317"/>
       <c r="E317"/>
     </row>
-    <row r="318" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>314</v>
+      </c>
       <c r="D318"/>
       <c r="E318"/>
     </row>
-    <row r="319" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>315</v>
+      </c>
       <c r="D319"/>
       <c r="E319"/>
     </row>
-    <row r="320" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>316</v>
+      </c>
       <c r="D320"/>
       <c r="E320"/>
     </row>
-    <row r="321" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>317</v>
+      </c>
       <c r="D321"/>
       <c r="E321"/>
     </row>
-    <row r="322" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>318</v>
+      </c>
       <c r="D322"/>
       <c r="E322"/>
     </row>
-    <row r="323" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>319</v>
+      </c>
       <c r="D323"/>
       <c r="E323"/>
     </row>
-    <row r="324" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>320</v>
+      </c>
       <c r="D324"/>
       <c r="E324"/>
     </row>
-    <row r="325" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>321</v>
+      </c>
       <c r="D325"/>
       <c r="E325"/>
     </row>
-    <row r="326" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>322</v>
+      </c>
       <c r="D326"/>
       <c r="E326"/>
     </row>
-    <row r="327" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>323</v>
+      </c>
       <c r="D327"/>
       <c r="E327"/>
     </row>
-    <row r="328" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>324</v>
+      </c>
       <c r="D328"/>
       <c r="E328"/>
     </row>
-    <row r="329" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>325</v>
+      </c>
       <c r="D329"/>
       <c r="E329"/>
     </row>
-    <row r="330" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>326</v>
+      </c>
       <c r="D330"/>
       <c r="E330"/>
     </row>
-    <row r="331" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>327</v>
+      </c>
       <c r="D331"/>
       <c r="E331"/>
     </row>
-    <row r="332" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>328</v>
+      </c>
       <c r="D332"/>
       <c r="E332"/>
     </row>
-    <row r="333" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>329</v>
+      </c>
       <c r="D333"/>
       <c r="E333"/>
     </row>
-    <row r="334" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>330</v>
+      </c>
       <c r="D334"/>
       <c r="E334"/>
     </row>
-    <row r="335" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>331</v>
+      </c>
       <c r="D335"/>
       <c r="E335"/>
     </row>
-    <row r="336" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>332</v>
+      </c>
       <c r="D336"/>
       <c r="E336"/>
     </row>
-    <row r="337" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>333</v>
+      </c>
       <c r="D337"/>
       <c r="E337"/>
     </row>
-    <row r="338" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>334</v>
+      </c>
       <c r="D338"/>
       <c r="E338"/>
     </row>
-    <row r="339" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>335</v>
+      </c>
       <c r="D339"/>
       <c r="E339"/>
     </row>
-    <row r="340" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>336</v>
+      </c>
       <c r="D340"/>
       <c r="E340"/>
     </row>
-    <row r="341" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>337</v>
+      </c>
       <c r="D341"/>
       <c r="E341"/>
     </row>
-    <row r="342" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>338</v>
+      </c>
       <c r="D342"/>
       <c r="E342"/>
     </row>
-    <row r="343" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>339</v>
+      </c>
       <c r="D343"/>
       <c r="E343"/>
     </row>
-    <row r="344" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>340</v>
+      </c>
       <c r="D344"/>
       <c r="E344"/>
     </row>
-    <row r="345" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>341</v>
+      </c>
       <c r="D345"/>
       <c r="E345"/>
     </row>
-    <row r="346" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>342</v>
+      </c>
       <c r="D346"/>
       <c r="E346"/>
     </row>
-    <row r="347" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>343</v>
+      </c>
       <c r="D347"/>
       <c r="E347"/>
     </row>
-    <row r="348" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>344</v>
+      </c>
       <c r="D348"/>
       <c r="E348"/>
     </row>
-    <row r="349" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>345</v>
+      </c>
       <c r="D349"/>
       <c r="E349"/>
     </row>
-    <row r="350" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>346</v>
+      </c>
       <c r="D350"/>
       <c r="E350"/>
     </row>
-    <row r="351" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>347</v>
+      </c>
       <c r="D351"/>
       <c r="E351"/>
     </row>
-    <row r="352" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>348</v>
+      </c>
       <c r="D352"/>
       <c r="E352"/>
     </row>
-    <row r="353" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>349</v>
+      </c>
       <c r="D353"/>
       <c r="E353"/>
     </row>
-    <row r="354" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>350</v>
+      </c>
       <c r="D354"/>
       <c r="E354"/>
     </row>
-    <row r="355" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>351</v>
+      </c>
       <c r="D355"/>
       <c r="E355"/>
     </row>
-    <row r="356" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>352</v>
+      </c>
       <c r="D356"/>
       <c r="E356"/>
     </row>
-    <row r="357" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>353</v>
+      </c>
       <c r="D357"/>
       <c r="E357"/>
     </row>
-    <row r="358" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>354</v>
+      </c>
       <c r="D358"/>
       <c r="E358"/>
     </row>
-    <row r="359" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>355</v>
+      </c>
       <c r="D359"/>
       <c r="E359"/>
     </row>
-    <row r="360" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>356</v>
+      </c>
       <c r="D360"/>
       <c r="E360"/>
     </row>
-    <row r="361" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>357</v>
+      </c>
       <c r="D361"/>
       <c r="E361"/>
     </row>
-    <row r="362" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>358</v>
+      </c>
       <c r="D362"/>
       <c r="E362"/>
     </row>
-    <row r="363" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>359</v>
+      </c>
       <c r="D363"/>
       <c r="E363"/>
     </row>
-    <row r="364" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>360</v>
+      </c>
       <c r="D364"/>
       <c r="E364"/>
     </row>
-    <row r="365" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>361</v>
+      </c>
       <c r="D365"/>
       <c r="E365"/>
     </row>
-    <row r="366" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>362</v>
+      </c>
       <c r="D366"/>
       <c r="E366"/>
     </row>
-    <row r="367" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>363</v>
+      </c>
       <c r="D367"/>
       <c r="E367"/>
     </row>
-    <row r="368" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>364</v>
+      </c>
       <c r="D368"/>
       <c r="E368"/>
     </row>
-    <row r="369" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>365</v>
+      </c>
       <c r="D369"/>
       <c r="E369"/>
     </row>
-    <row r="370" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>366</v>
+      </c>
       <c r="D370"/>
       <c r="E370"/>
     </row>
-    <row r="371" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>367</v>
+      </c>
       <c r="D371"/>
       <c r="E371"/>
     </row>
-    <row r="372" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>368</v>
+      </c>
       <c r="D372"/>
       <c r="E372"/>
     </row>
-    <row r="373" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>369</v>
+      </c>
       <c r="D373"/>
       <c r="E373"/>
     </row>
-    <row r="374" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>370</v>
+      </c>
       <c r="D374"/>
       <c r="E374"/>
     </row>
-    <row r="375" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>371</v>
+      </c>
       <c r="D375"/>
       <c r="E375"/>
     </row>
-    <row r="376" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>372</v>
+      </c>
       <c r="D376"/>
       <c r="E376"/>
     </row>
-    <row r="377" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>373</v>
+      </c>
       <c r="D377"/>
       <c r="E377"/>
     </row>
-    <row r="378" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>374</v>
+      </c>
       <c r="D378"/>
       <c r="E378"/>
     </row>
-    <row r="379" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>375</v>
+      </c>
       <c r="D379"/>
       <c r="E379"/>
     </row>
-    <row r="380" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>376</v>
+      </c>
       <c r="D380"/>
       <c r="E380"/>
     </row>
-    <row r="381" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>377</v>
+      </c>
       <c r="D381"/>
       <c r="E381"/>
     </row>
-    <row r="382" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>378</v>
+      </c>
       <c r="D382"/>
       <c r="E382"/>
     </row>
-    <row r="383" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>379</v>
+      </c>
       <c r="D383"/>
       <c r="E383"/>
     </row>
-    <row r="384" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>380</v>
+      </c>
       <c r="D384"/>
       <c r="E384"/>
     </row>
-    <row r="385" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>381</v>
+      </c>
       <c r="D385"/>
       <c r="E385"/>
     </row>
-    <row r="386" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>382</v>
+      </c>
       <c r="D386"/>
       <c r="E386"/>
     </row>
-    <row r="387" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>383</v>
+      </c>
       <c r="D387"/>
       <c r="E387"/>
     </row>
-    <row r="388" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>384</v>
+      </c>
       <c r="D388"/>
       <c r="E388"/>
     </row>
-    <row r="389" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>385</v>
+      </c>
       <c r="D389"/>
       <c r="E389"/>
     </row>
-    <row r="390" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>386</v>
+      </c>
       <c r="D390"/>
       <c r="E390"/>
     </row>
-    <row r="391" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>387</v>
+      </c>
       <c r="D391"/>
       <c r="E391"/>
     </row>
-    <row r="392" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>388</v>
+      </c>
       <c r="D392"/>
       <c r="E392"/>
     </row>
-    <row r="393" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>389</v>
+      </c>
       <c r="D393"/>
       <c r="E393"/>
     </row>
-    <row r="394" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>390</v>
+      </c>
       <c r="D394"/>
       <c r="E394"/>
     </row>
-    <row r="395" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>391</v>
+      </c>
       <c r="D395"/>
       <c r="E395"/>
     </row>
-    <row r="396" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>392</v>
+      </c>
       <c r="D396"/>
       <c r="E396"/>
     </row>
-    <row r="397" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>393</v>
+      </c>
       <c r="D397"/>
       <c r="E397"/>
     </row>
-    <row r="398" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>394</v>
+      </c>
       <c r="D398"/>
       <c r="E398"/>
     </row>
-    <row r="399" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>395</v>
+      </c>
       <c r="D399"/>
       <c r="E399"/>
     </row>
-    <row r="400" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>396</v>
+      </c>
       <c r="D400"/>
       <c r="E400"/>
     </row>
-    <row r="401" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>397</v>
+      </c>
       <c r="D401"/>
       <c r="E401"/>
     </row>
-    <row r="402" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>398</v>
+      </c>
       <c r="D402"/>
       <c r="E402"/>
     </row>
-    <row r="403" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>399</v>
+      </c>
       <c r="D403"/>
       <c r="E403"/>
     </row>
-    <row r="404" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>400</v>
+      </c>
       <c r="D404"/>
       <c r="E404"/>
     </row>
-    <row r="405" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>401</v>
+      </c>
       <c r="D405"/>
       <c r="E405"/>
     </row>
-    <row r="406" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>402</v>
+      </c>
       <c r="D406"/>
       <c r="E406"/>
     </row>
-    <row r="407" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>403</v>
+      </c>
       <c r="D407"/>
       <c r="E407"/>
     </row>
-    <row r="408" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>404</v>
+      </c>
       <c r="D408"/>
       <c r="E408"/>
     </row>
-    <row r="409" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>405</v>
+      </c>
       <c r="D409"/>
       <c r="E409"/>
     </row>
-    <row r="410" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>406</v>
+      </c>
       <c r="D410"/>
       <c r="E410"/>
     </row>
-    <row r="411" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>407</v>
+      </c>
       <c r="D411"/>
       <c r="E411"/>
     </row>
-    <row r="412" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>408</v>
+      </c>
       <c r="D412"/>
       <c r="E412"/>
     </row>
-    <row r="413" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>409</v>
+      </c>
       <c r="D413"/>
       <c r="E413"/>
     </row>
-    <row r="414" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>410</v>
+      </c>
       <c r="D414"/>
       <c r="E414"/>
     </row>
-    <row r="415" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>411</v>
+      </c>
       <c r="D415"/>
       <c r="E415"/>
     </row>
-    <row r="416" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>412</v>
+      </c>
       <c r="D416"/>
       <c r="E416"/>
     </row>
-    <row r="417" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>413</v>
+      </c>
       <c r="D417"/>
       <c r="E417"/>
     </row>
-    <row r="418" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>414</v>
+      </c>
       <c r="D418"/>
       <c r="E418"/>
     </row>
-    <row r="419" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>415</v>
+      </c>
       <c r="D419"/>
       <c r="E419"/>
     </row>
-    <row r="420" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>416</v>
+      </c>
       <c r="D420"/>
       <c r="E420"/>
     </row>
-    <row r="421" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>417</v>
+      </c>
       <c r="D421"/>
       <c r="E421"/>
     </row>
-    <row r="422" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>418</v>
+      </c>
       <c r="D422"/>
       <c r="E422"/>
     </row>
-    <row r="423" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>419</v>
+      </c>
       <c r="D423"/>
       <c r="E423"/>
     </row>
-    <row r="424" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>420</v>
+      </c>
       <c r="D424"/>
       <c r="E424"/>
     </row>
-    <row r="425" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>421</v>
+      </c>
       <c r="D425"/>
       <c r="E425"/>
     </row>
-    <row r="426" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>422</v>
+      </c>
       <c r="D426"/>
       <c r="E426"/>
     </row>
-    <row r="427" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>423</v>
+      </c>
       <c r="D427"/>
       <c r="E427"/>
     </row>
-    <row r="428" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>424</v>
+      </c>
       <c r="D428"/>
       <c r="E428"/>
     </row>
-    <row r="429" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>425</v>
+      </c>
       <c r="D429"/>
       <c r="E429"/>
     </row>
-    <row r="430" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>426</v>
+      </c>
       <c r="D430"/>
       <c r="E430"/>
     </row>
-    <row r="431" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>427</v>
+      </c>
       <c r="D431"/>
       <c r="E431"/>
     </row>
-    <row r="432" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>428</v>
+      </c>
       <c r="D432"/>
       <c r="E432"/>
     </row>
-    <row r="433" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>429</v>
+      </c>
       <c r="D433"/>
       <c r="E433"/>
     </row>
-    <row r="434" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D434"/>
       <c r="E434"/>
     </row>
-    <row r="435" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D435"/>
       <c r="E435"/>
     </row>
-    <row r="436" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D436"/>
       <c r="E436"/>
     </row>
-    <row r="437" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D437"/>
       <c r="E437"/>
     </row>
-    <row r="438" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D438"/>
       <c r="E438"/>
     </row>
-    <row r="439" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D439"/>
       <c r="E439"/>
     </row>
-    <row r="440" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D440"/>
       <c r="E440"/>
     </row>
-    <row r="441" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D441"/>
       <c r="E441"/>
     </row>
-    <row r="442" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D442"/>
       <c r="E442"/>
     </row>
-    <row r="443" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D443"/>
       <c r="E443"/>
     </row>
-    <row r="444" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D444"/>
       <c r="E444"/>
     </row>
-    <row r="445" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D445"/>
       <c r="E445"/>
     </row>
-    <row r="446" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D446"/>
       <c r="E446"/>
     </row>
-    <row r="447" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D447"/>
       <c r="E447"/>
     </row>
-    <row r="448" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D448"/>
       <c r="E448"/>
     </row>
@@ -10392,4 +15856,28 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D5F911-5CA2-2B45-9030-ABA68A659132}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF2E2E8-7358-9D49-89F4-BE9A3C1C0611}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/merlin-core/examples/tests/Test.xlsx
+++ b/merlin-core/examples/tests/Test.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/merlin-core/examples/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8257D06-34FB-014D-A549-F792E18B33D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9094A4DE-AE91-CD49-BAD5-96E0FBF5F2E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{807731F7-3C7F-FA4C-9BD2-1577F56BA4D5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{807731F7-3C7F-FA4C-9BD2-1577F56BA4D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Validator-Test" sheetId="7" r:id="rId1"/>
-    <sheet name="Config" sheetId="4" r:id="rId2"/>
-    <sheet name="Validator-Mass-Test" sheetId="6" r:id="rId3"/>
-    <sheet name="Empty-sheet" sheetId="8" r:id="rId4"/>
-    <sheet name="Empty-sheet2" sheetId="9" r:id="rId5"/>
+    <sheet name="Clean-Test" sheetId="10" r:id="rId2"/>
+    <sheet name="Config" sheetId="4" r:id="rId3"/>
+    <sheet name="Validator-Mass-Test" sheetId="6" r:id="rId4"/>
+    <sheet name="Empty-sheet" sheetId="8" r:id="rId5"/>
+    <sheet name="Empty-sheet2" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Validator-Mass-Test'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Clean-Test'!$A$3:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Validator-Mass-Test'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Validator-Test'!$A$3:$H$3</definedName>
     <definedName name="Icons">#REF!</definedName>
     <definedName name="Item_Types">#REF!</definedName>
@@ -40,8 +42,168 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{D729A7B9-F01D-EE49-A42F-587D0F725FAC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zellwert ist kein gültiges Datum: '5'.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{5C627B38-F34A-F04A-AEE5-9FB061F7188B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zellwert ist keine gültige E-Mail-Adresse 'molestie @vitaenibh.org'.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{397AD818-8E9D-4D4E-9536-FAB42FB03606}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Zellwert ist kein gültiges Datum: '17 12.89'.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{393B8639-072E-D64D-993B-012394908561}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Zellwert ist nicht eindeutig. Der Wert wurde bereits in Zeile #6 verwendet: '8331'.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0" shapeId="0" xr:uid="{A2078C07-28DA-9D42-ABB3-FE79F2829791}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Zellwert ist nicht eindeutig. Der Wert wurde bereits in Zeile #5 verwendet: 'diam@augue.net'.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{5F94DA60-475C-7D41-8087-588F582BAB53}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Zellwert ist kein gültiges Datum: '-'.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{2A6913E3-30E8-CA4D-B812-F2CA118142A1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zellwert fehlt.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{C9F9E7B5-7E4D-1342-975D-EDE013311A5F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zellwert fehlt.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H67" authorId="0" shapeId="0" xr:uid="{8880731C-CFC6-8F4B-A5A6-8D2E190C846D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Zellwert ist nicht eindeutig. Der Wert wurde bereits in Zeile #4 verwendet: '7083'.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H70" authorId="0" shapeId="0" xr:uid="{0CB5B682-700B-644F-B8CD-1C2D05372E50}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Zellwert ist nicht eindeutig. Der Wert wurde bereits in Zeile #10 verwendet: '5624'.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H74" authorId="0" shapeId="0" xr:uid="{4DFC1D5E-FCA0-D449-A78D-DAC7E6BD6342}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Zellwert ist nicht eindeutig. Der Wert wurde bereits in Zeile #32 verwendet: '3869'.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="552">
   <si>
     <t>Property</t>
   </si>
@@ -1655,6 +1817,50 @@
   </si>
   <si>
     <t>17 12.89</t>
+  </si>
+  <si>
+    <t>*** Fehlermeldungen Validierung ***
+Spaltenkopf nicht gefunden: 'Country'.</t>
+  </si>
+  <si>
+    <t>In Spalte G:'Birthday': Zellwert ist kein gültiges Datum: '5'.</t>
+  </si>
+  <si>
+    <t>In Spalte C:'E-Mail': Zellwert ist keine gültige E-Mail-Adresse 'molestie @vitaenibh.org'.</t>
+  </si>
+  <si>
+    <t>In Spalte G:'Birthday': Zellwert ist kein gültiges Datum: '17 12.89'.</t>
+  </si>
+  <si>
+    <t>In Spalte H:'Number': Zellwert ist nicht eindeutig. Der Wert wurde bereits in Zeile #6 verwendet: '8331'.</t>
+  </si>
+  <si>
+    <t>In Spalte C:'E-Mail': Zellwert ist nicht eindeutig. Der Wert wurde bereits in Zeile #5 verwendet: 'diam@augue.net'.
+In Spalte G:'Birthday': Zellwert ist kein gültiges Datum: '-'.</t>
+  </si>
+  <si>
+    <t>In Spalte C:'E-Mail': Zellwert fehlt.</t>
+  </si>
+  <si>
+    <t>In Spalte A:'Surname': Zellwert fehlt.</t>
+  </si>
+  <si>
+    <t>In Spalte H:'Number': Zellwert ist nicht eindeutig. Der Wert wurde bereits in Zeile #4 verwendet: '7083'.</t>
+  </si>
+  <si>
+    <t>In Spalte H:'Number': Zellwert ist nicht eindeutig. Der Wert wurde bereits in Zeile #10 verwendet: '5624'.</t>
+  </si>
+  <si>
+    <t>In Spalte H:'Number': Zellwert ist nicht eindeutig. Der Wert wurde bereits in Zeile #32 verwendet: '3869'.</t>
+  </si>
+  <si>
+    <t>molestie@vitaenibh.org</t>
+  </si>
+  <si>
+    <t>an.wejc@eratSed.net</t>
+  </si>
+  <si>
+    <t>Bros</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +1870,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1707,13 +1913,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1729,7 +1951,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1757,10 +1979,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2078,8 +2305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CD091A-A82C-7342-A63E-91B2ED3E45EC}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2095,13 +2322,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>535</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
@@ -2252,7 +2479,7 @@
       <c r="F8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>5</v>
       </c>
       <c r="H8" s="18">
@@ -2486,8 +2713,8 @@
       <c r="F17" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="15">
-        <v>30333</v>
+      <c r="G17" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="H17" s="18">
         <v>3410</v>
@@ -4735,6 +4962,2709 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48523C47-9DEF-7540-8549-ABDE4E7142E1}">
+  <dimension ref="A1:I103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="92.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="14">
+        <v>52267</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="15">
+        <v>31522</v>
+      </c>
+      <c r="H4" s="18">
+        <v>7083</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="14">
+        <v>81471</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="15">
+        <v>21805</v>
+      </c>
+      <c r="H5" s="18">
+        <v>5691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="14">
+        <v>98116</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="15">
+        <v>31887</v>
+      </c>
+      <c r="H6" s="18">
+        <v>8331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="14">
+        <v>60545</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="15">
+        <v>8112</v>
+      </c>
+      <c r="H7" s="18">
+        <v>5738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="20">
+        <v>5</v>
+      </c>
+      <c r="H8" s="18">
+        <v>5932</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="14">
+        <v>47759</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="15">
+        <v>11870</v>
+      </c>
+      <c r="H9" s="18">
+        <v>5678</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="14">
+        <v>733383</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="H10" s="18">
+        <v>5624</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="14">
+        <v>8042</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="15">
+        <v>15672</v>
+      </c>
+      <c r="H11" s="18">
+        <v>8456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="14">
+        <v>16864</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="15">
+        <v>25746</v>
+      </c>
+      <c r="H12" s="18">
+        <v>5463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="14">
+        <v>8864</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="15">
+        <v>21773</v>
+      </c>
+      <c r="H13" s="18">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="14">
+        <v>35862</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="15">
+        <v>19988</v>
+      </c>
+      <c r="H14" s="20">
+        <v>8331</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="15">
+        <v>9766</v>
+      </c>
+      <c r="H15" s="18">
+        <v>6289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1602</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="15">
+        <v>858</v>
+      </c>
+      <c r="H16" s="18">
+        <v>5469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="18">
+        <v>3410</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="14">
+        <v>80463</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="15">
+        <v>23588</v>
+      </c>
+      <c r="H18" s="18">
+        <v>9718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="15">
+        <v>30047</v>
+      </c>
+      <c r="H19" s="18">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="14">
+        <v>34628</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="15">
+        <v>33334</v>
+      </c>
+      <c r="H20" s="18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="14">
+        <v>9914</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="15">
+        <v>31427</v>
+      </c>
+      <c r="H21" s="18">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="14">
+        <v>10529</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="15">
+        <v>239</v>
+      </c>
+      <c r="H22" s="18">
+        <v>1713</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="14">
+        <v>20207</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="15">
+        <v>10712</v>
+      </c>
+      <c r="H23" s="18">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="14">
+        <v>44879</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="15">
+        <v>20166</v>
+      </c>
+      <c r="H24" s="18">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="14">
+        <v>71340</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="15">
+        <v>29311</v>
+      </c>
+      <c r="H25" s="18">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="14">
+        <v>95173</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="15">
+        <v>29861</v>
+      </c>
+      <c r="H26" s="18">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="14">
+        <v>37439</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="15">
+        <v>23920</v>
+      </c>
+      <c r="H27" s="18">
+        <v>9792</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="15">
+        <v>34598</v>
+      </c>
+      <c r="H28" s="18">
+        <v>6961</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="15">
+        <v>25071</v>
+      </c>
+      <c r="H29" s="18">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="14">
+        <v>967755</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" s="15">
+        <v>35279</v>
+      </c>
+      <c r="H30" s="18">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="15">
+        <v>9192</v>
+      </c>
+      <c r="H31" s="18">
+        <v>9579</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="14">
+        <v>228857</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="15">
+        <v>11041</v>
+      </c>
+      <c r="H32" s="18">
+        <v>3869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" s="15">
+        <v>24910</v>
+      </c>
+      <c r="H33" s="18">
+        <v>5344</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="14">
+        <v>783798</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G34" s="15">
+        <v>375</v>
+      </c>
+      <c r="H34" s="18">
+        <v>5935</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" s="14">
+        <v>8412</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="G35" s="15">
+        <v>28335</v>
+      </c>
+      <c r="H35" s="18">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="14">
+        <v>6497</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" s="15">
+        <v>33330</v>
+      </c>
+      <c r="H36" s="18">
+        <v>6432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E37" s="14">
+        <v>852016</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G37" s="15">
+        <v>11720</v>
+      </c>
+      <c r="H37" s="18">
+        <v>8591</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G38" s="15">
+        <v>18207</v>
+      </c>
+      <c r="H38" s="18">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" s="14">
+        <v>72146</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="G39" s="15">
+        <v>34324</v>
+      </c>
+      <c r="H39" s="18">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E40" s="14">
+        <v>63621</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="G40" s="15">
+        <v>34860</v>
+      </c>
+      <c r="H40" s="18">
+        <v>8229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="14">
+        <v>5660</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G41" s="15">
+        <v>25153</v>
+      </c>
+      <c r="H41" s="18">
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E42" s="14">
+        <v>31729</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="G42" s="15">
+        <v>249</v>
+      </c>
+      <c r="H42" s="18">
+        <v>5485</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" s="14">
+        <v>92324</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="G43" s="15">
+        <v>8545</v>
+      </c>
+      <c r="H43" s="18">
+        <v>5969</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E44" s="14">
+        <v>11313</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="G44" s="15">
+        <v>13939</v>
+      </c>
+      <c r="H44" s="18">
+        <v>6234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E45" s="14">
+        <v>30212</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="G45" s="15">
+        <v>28292</v>
+      </c>
+      <c r="H45" s="18">
+        <v>9468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G46" s="15">
+        <v>31775</v>
+      </c>
+      <c r="H46" s="18">
+        <v>6569</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="G47" s="15">
+        <v>21127</v>
+      </c>
+      <c r="H47" s="18">
+        <v>7476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E48" s="14">
+        <v>5294</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="G48" s="15">
+        <v>28287</v>
+      </c>
+      <c r="H48" s="18">
+        <v>7977</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="G49" s="15">
+        <v>8908</v>
+      </c>
+      <c r="H49" s="18">
+        <v>5618</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="E50" s="14">
+        <v>3603</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="G50" s="15">
+        <v>21262</v>
+      </c>
+      <c r="H50" s="18">
+        <v>9117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E51" s="14">
+        <v>80809</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G51" s="15">
+        <v>8953</v>
+      </c>
+      <c r="H51" s="18">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="E52" s="14">
+        <v>16486</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="G52" s="15">
+        <v>27046</v>
+      </c>
+      <c r="H52" s="18">
+        <v>7241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E53" s="14">
+        <v>4521</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G53" s="15">
+        <v>14100</v>
+      </c>
+      <c r="H53" s="18">
+        <v>7614</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E54" s="14">
+        <v>67386</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="G54" s="15">
+        <v>26797</v>
+      </c>
+      <c r="H54" s="18">
+        <v>6409</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E55" s="14">
+        <v>9694</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="G55" s="15">
+        <v>23468</v>
+      </c>
+      <c r="H55" s="18">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E56" s="14">
+        <v>52318</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="G56" s="15">
+        <v>36282</v>
+      </c>
+      <c r="H56" s="18">
+        <v>5873</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G57" s="15">
+        <v>26623</v>
+      </c>
+      <c r="H57" s="18">
+        <v>8348</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="G58" s="15">
+        <v>18822</v>
+      </c>
+      <c r="H58" s="18">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E59" s="14">
+        <v>533841</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="G59" s="15">
+        <v>35255</v>
+      </c>
+      <c r="H59" s="18">
+        <v>8267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E60" s="14">
+        <v>323844</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="G60" s="15">
+        <v>18849</v>
+      </c>
+      <c r="H60" s="18">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E61" s="14">
+        <v>651890</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="G61" s="15">
+        <v>24611</v>
+      </c>
+      <c r="H61" s="18">
+        <v>6741</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E62" s="14">
+        <v>5555</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="G62" s="15">
+        <v>30280</v>
+      </c>
+      <c r="H62" s="18">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="E63" s="14">
+        <v>969217</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="G63" s="15">
+        <v>34742</v>
+      </c>
+      <c r="H63" s="18">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="E64" s="14">
+        <v>7102</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="G64" s="15">
+        <v>15356</v>
+      </c>
+      <c r="H64" s="18">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="E65" s="14">
+        <v>4591</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="G65" s="15">
+        <v>32259</v>
+      </c>
+      <c r="H65" s="18">
+        <v>9953</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="E66" s="14">
+        <v>8105</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="G66" s="15">
+        <v>823</v>
+      </c>
+      <c r="H66" s="18">
+        <v>7247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="G67" s="15">
+        <v>24345</v>
+      </c>
+      <c r="H67" s="20">
+        <v>7083</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="E68" s="14">
+        <v>414369</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="G68" s="15">
+        <v>11290</v>
+      </c>
+      <c r="H68" s="18">
+        <v>9993</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="E69" s="14">
+        <v>6582</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="G69" s="15">
+        <v>25782</v>
+      </c>
+      <c r="H69" s="18">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="E70" s="14">
+        <v>79087</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="G70" s="15">
+        <v>23469</v>
+      </c>
+      <c r="H70" s="20">
+        <v>5624</v>
+      </c>
+      <c r="I70" s="21" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E71" s="14">
+        <v>21613</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="G71" s="15">
+        <v>15018</v>
+      </c>
+      <c r="H71" s="18">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E72" s="14">
+        <v>94694</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="G72" s="15">
+        <v>10863</v>
+      </c>
+      <c r="H72" s="18">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E73" s="14">
+        <v>6980</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="G73" s="15">
+        <v>15120</v>
+      </c>
+      <c r="H73" s="18">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="G74" s="15">
+        <v>29074</v>
+      </c>
+      <c r="H74" s="20">
+        <v>3869</v>
+      </c>
+      <c r="I74" s="21" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="E75" s="14">
+        <v>19942</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="G75" s="15">
+        <v>9984</v>
+      </c>
+      <c r="H75" s="18">
+        <v>8649</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="E76" s="14">
+        <v>53071</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="G76" s="15">
+        <v>29833</v>
+      </c>
+      <c r="H76" s="18">
+        <v>7841</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="G77" s="15">
+        <v>26703</v>
+      </c>
+      <c r="H77" s="18">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E78" s="14">
+        <v>54649</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G78" s="15">
+        <v>14470</v>
+      </c>
+      <c r="H78" s="18">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="E79" s="14">
+        <v>42250</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="G79" s="15">
+        <v>29451</v>
+      </c>
+      <c r="H79" s="18">
+        <v>9364</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="E80" s="14">
+        <v>3964</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="G80" s="15">
+        <v>17222</v>
+      </c>
+      <c r="H80" s="18">
+        <v>6517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="E81" s="14">
+        <v>1422</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="G81" s="15">
+        <v>33996</v>
+      </c>
+      <c r="H81" s="18">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="E82" s="14">
+        <v>95564</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="G82" s="15">
+        <v>26353</v>
+      </c>
+      <c r="H82" s="18">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="G83" s="15">
+        <v>11851</v>
+      </c>
+      <c r="H83" s="18">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="E84" s="14">
+        <v>4274</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="G84" s="15">
+        <v>11940</v>
+      </c>
+      <c r="H84" s="18">
+        <v>4963</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="E85" s="14">
+        <v>36673</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="G85" s="15">
+        <v>35368</v>
+      </c>
+      <c r="H85" s="18">
+        <v>7451</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="G86" s="15">
+        <v>9515</v>
+      </c>
+      <c r="H86" s="18">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="E87" s="14">
+        <v>5862</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="G87" s="15">
+        <v>28966</v>
+      </c>
+      <c r="H87" s="18">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="E88" s="14">
+        <v>735018</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="G88" s="15">
+        <v>25170</v>
+      </c>
+      <c r="H88" s="18">
+        <v>6570</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E89" s="14">
+        <v>32527</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="G89" s="15">
+        <v>562</v>
+      </c>
+      <c r="H89" s="18">
+        <v>7627</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="E90" s="14">
+        <v>6212</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G90" s="15">
+        <v>20041</v>
+      </c>
+      <c r="H90" s="18">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="G91" s="15">
+        <v>26600</v>
+      </c>
+      <c r="H91" s="18">
+        <v>6172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="E92" s="14">
+        <v>1835</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="G92" s="15">
+        <v>31240</v>
+      </c>
+      <c r="H92" s="18">
+        <v>7756</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="E93" s="14">
+        <v>86515</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="G93" s="15">
+        <v>36439</v>
+      </c>
+      <c r="H93" s="18">
+        <v>9939</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="E94" s="14">
+        <v>9522</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="G94" s="15">
+        <v>715</v>
+      </c>
+      <c r="H94" s="18">
+        <v>9419</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="E95" s="14">
+        <v>55246</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="G95" s="15">
+        <v>34163</v>
+      </c>
+      <c r="H95" s="18">
+        <v>6578</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="G96" s="15">
+        <v>32069</v>
+      </c>
+      <c r="H96" s="18">
+        <v>9247</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="E97" s="14">
+        <v>59129</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="G97" s="15">
+        <v>25700</v>
+      </c>
+      <c r="H97" s="18">
+        <v>6436</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="E98" s="14">
+        <v>4004</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="G98" s="15">
+        <v>1301</v>
+      </c>
+      <c r="H98" s="18">
+        <v>6555</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E99" s="14">
+        <v>9259</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="G99" s="15">
+        <v>32616</v>
+      </c>
+      <c r="H99" s="18">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="G100" s="15">
+        <v>29008</v>
+      </c>
+      <c r="H100" s="18">
+        <v>6698</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="E101" s="14">
+        <v>50613</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="G101" s="15">
+        <v>11852</v>
+      </c>
+      <c r="H101" s="18">
+        <v>4853</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="G102" s="15">
+        <v>7601</v>
+      </c>
+      <c r="H102" s="18">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="E103" s="14">
+        <v>8958</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="G103" s="15">
+        <v>22815</v>
+      </c>
+      <c r="H103" s="18">
+        <v>4691</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:H3" xr:uid="{311727DA-2C25-4248-A1AB-FACF9100D64C}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{EDD810C1-6CF6-6945-9C42-3DB037DF3BDA}"/>
+    <hyperlink ref="C22" r:id="rId2" xr:uid="{DD17EF7A-5C5A-264C-A0F6-9DE239950414}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111F246E-EEF3-DD4C-B295-A2DBE68EE3E6}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -4815,7 +7745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FDF904-A3CB-C64E-BE3C-0B7C9F82B373}">
   <dimension ref="A1:E2427"/>
   <sheetViews>
@@ -15858,19 +18788,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D5F911-5CA2-2B45-9030-ABA68A659132}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF2E2E8-7358-9D49-89F4-BE9A3C1C0611}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/merlin-core/examples/tests/Test.xlsx
+++ b/merlin-core/examples/tests/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/workspace/Java/merlin/merlin-core/examples/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9094A4DE-AE91-CD49-BAD5-96E0FBF5F2E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4D0A1E-4969-2549-B631-337AF60CEF66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{807731F7-3C7F-FA4C-9BD2-1577F56BA4D5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{807731F7-3C7F-FA4C-9BD2-1577F56BA4D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Validator-Test" sheetId="7" r:id="rId1"/>
@@ -1917,6 +1917,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2305,7 +2306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CD091A-A82C-7342-A63E-91B2ED3E45EC}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -4965,7 +4966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48523C47-9DEF-7540-8549-ABDE4E7142E1}">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
